--- a/InTheRedSourcesThresholdsDefinitions.xlsx
+++ b/InTheRedSourcesThresholdsDefinitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alainnalynch/Documents/GitHub/Public/2021USRacialInequality/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03E618C9-D053-7146-A061-73F1A9AAC58D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6FE5F8-4A42-5F4F-99D1-3A0953A48096}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="800" windowWidth="27560" windowHeight="17200" xr2:uid="{E686C86A-ADA7-DE49-9F71-CFADCEBAFD67}"/>
+    <workbookView xWindow="1340" yWindow="800" windowWidth="27460" windowHeight="17200" activeTab="1" xr2:uid="{E686C86A-ADA7-DE49-9F71-CFADCEBAFD67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="508">
   <si>
     <t>Introduction:</t>
   </si>
@@ -613,9 +613,6 @@
     <t>Childcare Cost</t>
   </si>
   <si>
-    <t>Expected cost of childcare for 4 year olds, as a percentage of median household income of families with at least one child 6 years or younger</t>
-  </si>
-  <si>
     <t>https://www.childcareaware.org/</t>
   </si>
   <si>
@@ -1562,6 +1559,9 @@
   </si>
   <si>
     <t>Terms used in codebook</t>
+  </si>
+  <si>
+    <t>Expected cost of childcare for 4 year old's, as a percentage of median household income of families with at least one child 6 years or younger</t>
   </si>
 </sst>
 </file>
@@ -1800,6 +1800,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1818,28 +1838,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2206,7 +2206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BE516A-1291-734D-BDA8-FEB16660AB27}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2218,100 +2218,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
     </row>
     <row r="4" spans="1:3" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
     </row>
     <row r="5" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:3" ht="50" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16" t="s">
-        <v>507</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="50" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="C7" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="C7" s="20" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="50" x14ac:dyDescent="0.2">
+      <c r="A8" s="21"/>
+      <c r="B8" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="50" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19" t="s">
+    <row r="9" spans="1:3" ht="125" x14ac:dyDescent="0.2">
+      <c r="A9" s="21"/>
+      <c r="B9" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C9" s="13" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="125" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19" t="s">
+    <row r="10" spans="1:3" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
-        <v>506</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="20" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="50" x14ac:dyDescent="0.2">
+      <c r="A11" s="21"/>
+      <c r="B11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>504</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="50" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="20"/>
     </row>
     <row r="13" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2334,8 +2334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B8F02C-1052-2E44-9809-1C335BE0053D}">
   <dimension ref="A1:X81"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" topLeftCell="V59" workbookViewId="0">
+      <selection activeCell="W78" sqref="M1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2361,7 +2361,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
@@ -2382,10 +2382,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>494</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>495</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>8</v>
@@ -2394,7 +2394,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>12</v>
@@ -2423,16 +2423,16 @@
       <c r="V1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="14" t="s">
         <v>21</v>
       </c>
       <c r="X1" s="6"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="13">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="7">
         <v>2</v>
       </c>
       <c r="C2" t="s">
@@ -2465,34 +2465,34 @@
       <c r="L2" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="8">
         <v>0.81549441814422607</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="8">
         <v>29.162744522094727</v>
       </c>
-      <c r="O2" s="14">
+      <c r="O2" s="8">
         <v>6.0188360214233398</v>
       </c>
-      <c r="P2" s="14">
+      <c r="P2" s="8">
         <v>14.800000190734863</v>
       </c>
-      <c r="Q2" s="14">
+      <c r="Q2" s="8">
         <v>49.900001525878906</v>
       </c>
-      <c r="R2" s="14">
+      <c r="R2" s="8">
         <v>3.6500000953674316</v>
       </c>
-      <c r="S2" s="14">
+      <c r="S2" s="8">
         <v>20</v>
       </c>
-      <c r="T2" s="14">
+      <c r="T2" s="8">
         <v>10</v>
       </c>
-      <c r="U2" s="14">
+      <c r="U2" s="8">
         <v>17</v>
       </c>
-      <c r="V2" s="14">
+      <c r="V2" s="8">
         <v>14</v>
       </c>
       <c r="W2" t="s">
@@ -2500,10 +2500,10 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="7">
         <v>3</v>
       </c>
       <c r="C3" t="s">
@@ -2536,34 +2536,34 @@
       <c r="L3" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="8">
         <v>0</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="8">
         <v>62.846153259277344</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="8">
         <v>8.5886659622192383</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P3" s="8">
         <v>46</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="Q3" s="8">
         <v>84</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="8">
         <v>0</v>
       </c>
-      <c r="S3" s="14">
+      <c r="S3" s="8">
         <v>14.300000190734863</v>
       </c>
-      <c r="T3" s="14">
+      <c r="T3" s="8">
         <v>5.1292762756347701</v>
       </c>
-      <c r="U3" s="14">
+      <c r="U3" s="8">
         <v>10.8396558761597</v>
       </c>
-      <c r="V3" s="14">
+      <c r="V3" s="8">
         <v>7.9844660758972203</v>
       </c>
       <c r="W3" t="s">
@@ -2571,10 +2571,10 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="7">
         <v>6</v>
       </c>
       <c r="C4" t="s">
@@ -2607,34 +2607,34 @@
       <c r="L4" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="8">
         <v>2.5108599662780762</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="8">
         <v>2.3891551494598389</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="8">
         <v>0.47967690229415894</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4" s="8">
         <v>1.6829267740249634</v>
       </c>
-      <c r="Q4" s="14">
+      <c r="Q4" s="8">
         <v>3.9333333969116211</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="8">
         <v>1</v>
       </c>
-      <c r="S4" s="14">
+      <c r="S4" s="8">
         <v>2</v>
       </c>
-      <c r="T4" s="14">
+      <c r="T4" s="8">
         <v>1.25</v>
       </c>
-      <c r="U4" s="14">
+      <c r="U4" s="8">
         <v>1.75</v>
       </c>
-      <c r="V4" s="14">
+      <c r="V4" s="8">
         <v>1.5</v>
       </c>
       <c r="W4" t="s">
@@ -2642,10 +2642,10 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="7">
         <v>7</v>
       </c>
       <c r="C5" t="s">
@@ -2678,34 +2678,34 @@
       <c r="L5" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="8">
         <v>0</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="8">
         <v>2.9756968021392822</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="8">
         <v>0.72048383951187134</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="8">
         <v>2</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="8">
         <v>5.6067414283752441</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="8">
         <v>1</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="8">
         <v>2</v>
       </c>
-      <c r="T5" s="14">
+      <c r="T5" s="8">
         <v>1.25</v>
       </c>
-      <c r="U5" s="14">
+      <c r="U5" s="8">
         <v>1.75</v>
       </c>
-      <c r="V5" s="14">
+      <c r="V5" s="8">
         <v>1.5</v>
       </c>
       <c r="W5" t="s">
@@ -2713,10 +2713,10 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="7">
         <v>1</v>
       </c>
       <c r="C6" t="s">
@@ -2749,34 +2749,34 @@
       <c r="L6" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="8">
         <v>4.3703694343566895</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="8">
         <v>43.13800048828125</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="8">
         <v>6.3761320114135742</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="8">
         <v>31.700000762939453</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="8">
         <v>58</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="8">
         <v>23.799999237060547</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="8">
         <v>37.299999237060547</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="8">
         <v>25.928168296814</v>
       </c>
-      <c r="U6" s="14">
+      <c r="U6" s="8">
         <v>33.287831306457498</v>
       </c>
-      <c r="V6" s="14">
+      <c r="V6" s="8">
         <v>29.6079998016357</v>
       </c>
       <c r="W6" t="s">
@@ -2784,10 +2784,10 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
@@ -2820,34 +2820,34 @@
       <c r="L7" t="s">
         <v>64</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="8">
         <v>0</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="8">
         <v>59.100143432617188</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="8">
         <v>7.6004767417907715</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="8">
         <v>35.425533294677734</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="8">
         <v>67.707672119140625</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="8">
         <v>0</v>
       </c>
-      <c r="S7" s="14">
+      <c r="S7" s="8">
         <v>30.273622512817383</v>
       </c>
-      <c r="T7" s="14">
+      <c r="T7" s="8">
         <v>7</v>
       </c>
-      <c r="U7" s="14">
+      <c r="U7" s="8">
         <v>24</v>
       </c>
-      <c r="V7" s="14">
+      <c r="V7" s="8">
         <v>16</v>
       </c>
       <c r="W7" t="s">
@@ -2855,10 +2855,10 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
+      <c r="A8" s="7">
         <v>2</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="7">
         <v>3</v>
       </c>
       <c r="C8" t="s">
@@ -2891,34 +2891,34 @@
       <c r="L8" t="s">
         <v>73</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="8">
         <v>39.024192810058594</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="8">
         <v>11.166666984558105</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="8">
         <v>2.1529204845428467</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="8">
         <v>6.5999999046325684</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="8">
         <v>15.699999809265137</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R8" s="8">
         <v>0</v>
       </c>
-      <c r="S8" s="14">
+      <c r="S8" s="8">
         <v>18.313274383544922</v>
       </c>
-      <c r="T8" s="14">
+      <c r="T8" s="8">
         <v>5</v>
       </c>
-      <c r="U8" s="14">
+      <c r="U8" s="8">
         <v>15.5</v>
       </c>
-      <c r="V8" s="14">
+      <c r="V8" s="8">
         <v>10</v>
       </c>
       <c r="W8" t="s">
@@ -2926,10 +2926,10 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
+      <c r="A9" s="7">
         <v>2</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="7">
         <v>5</v>
       </c>
       <c r="C9" t="s">
@@ -2962,34 +2962,34 @@
       <c r="L9" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="8">
         <v>79.229011535644531</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="8">
         <v>1.2077099084854126</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="8">
         <v>0.17423571646213531</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="8">
         <v>1</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="8">
         <v>1.6481201648712158</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="8">
         <v>1</v>
       </c>
-      <c r="S9" s="14">
+      <c r="S9" s="8">
         <v>2</v>
       </c>
-      <c r="T9" s="14">
+      <c r="T9" s="8">
         <v>1.25</v>
       </c>
-      <c r="U9" s="14">
+      <c r="U9" s="8">
         <v>1.75</v>
       </c>
-      <c r="V9" s="14">
+      <c r="V9" s="8">
         <v>1.5</v>
       </c>
       <c r="W9" t="s">
@@ -2997,10 +2997,10 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
+      <c r="A10" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="7">
         <v>6</v>
       </c>
       <c r="C10" t="s">
@@ -3033,34 +3033,34 @@
       <c r="L10" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="8">
         <v>59.037502288818359</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="8">
         <v>1.4100790023803711</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="8">
         <v>0.18551802635192871</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="8">
         <v>0.98761612176895142</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q10" s="8">
         <v>2.0350878238677979</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R10" s="8">
         <v>1</v>
       </c>
-      <c r="S10" s="14">
+      <c r="S10" s="8">
         <v>2</v>
       </c>
-      <c r="T10" s="14">
+      <c r="T10" s="8">
         <v>1.25</v>
       </c>
-      <c r="U10" s="14">
+      <c r="U10" s="8">
         <v>1.75</v>
       </c>
-      <c r="V10" s="14">
+      <c r="V10" s="8">
         <v>1.5</v>
       </c>
       <c r="W10" t="s">
@@ -3068,10 +3068,10 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
+      <c r="A11" s="7">
         <v>3</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="7">
         <v>1</v>
       </c>
       <c r="C11" t="s">
@@ -3104,34 +3104,34 @@
       <c r="L11" t="s">
         <v>88</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="8">
         <v>17.529716491699219</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="8">
         <v>10.087209701538086</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="8">
         <v>2.5928301811218262</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="8">
         <v>4.8499999046325684</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q11" s="8">
         <v>15.930000305175781</v>
       </c>
-      <c r="R11" s="14">
+      <c r="R11" s="8">
         <v>2.0999999046325684</v>
       </c>
-      <c r="S11" s="14">
+      <c r="S11" s="8">
         <v>11.100000381469727</v>
       </c>
-      <c r="T11" s="14">
+      <c r="T11" s="8">
         <v>3.5</v>
       </c>
-      <c r="U11" s="14">
+      <c r="U11" s="8">
         <v>7</v>
       </c>
-      <c r="V11" s="14">
+      <c r="V11" s="8">
         <v>5</v>
       </c>
       <c r="W11" t="s">
@@ -3139,10 +3139,10 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+      <c r="A12" s="7">
         <v>3</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="7">
         <v>2</v>
       </c>
       <c r="C12" t="s">
@@ -3175,34 +3175,34 @@
       <c r="L12" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="8">
         <v>73.678321838378906</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="8">
         <v>359.62774658203125</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O12" s="8">
         <v>82.4622802734375</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="8">
         <v>208.3179931640625</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q12" s="8">
         <v>540.47998046875</v>
       </c>
-      <c r="R12" s="14">
+      <c r="R12" s="8">
         <v>302</v>
       </c>
-      <c r="S12" s="14">
+      <c r="S12" s="8">
         <v>566</v>
       </c>
-      <c r="T12" s="14">
+      <c r="T12" s="8">
         <v>320</v>
       </c>
-      <c r="U12" s="14">
+      <c r="U12" s="8">
         <v>480</v>
       </c>
-      <c r="V12" s="14">
+      <c r="V12" s="8">
         <v>405</v>
       </c>
       <c r="W12" t="s">
@@ -3210,10 +3210,10 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="7">
         <v>3</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="7">
         <v>4</v>
       </c>
       <c r="C13" t="s">
@@ -3246,34 +3246,34 @@
       <c r="L13" t="s">
         <v>103</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="8">
         <v>3.126361608505249</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="8">
         <v>23.349020004272461</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="8">
         <v>6.0974540710449219</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="8">
         <v>9.8000001907348633</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13" s="8">
         <v>37.599998474121094</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13" s="8">
         <v>0</v>
       </c>
-      <c r="S13" s="14">
+      <c r="S13" s="8">
         <v>18</v>
       </c>
-      <c r="T13" s="14">
+      <c r="T13" s="8">
         <v>5</v>
       </c>
-      <c r="U13" s="14">
+      <c r="U13" s="8">
         <v>15</v>
       </c>
-      <c r="V13" s="14">
+      <c r="V13" s="8">
         <v>10</v>
       </c>
       <c r="W13" t="s">
@@ -3281,10 +3281,10 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+      <c r="A14" s="7">
         <v>3</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="7">
         <v>5</v>
       </c>
       <c r="C14" t="s">
@@ -3317,34 +3317,34 @@
       <c r="L14" t="s">
         <v>103</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="8">
         <v>2.4881527423858643</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N14" s="8">
         <v>25.044540405273438</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O14" s="8">
         <v>8.1386709213256836</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P14" s="8">
         <v>7.0395374298095703</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="Q14" s="8">
         <v>40.960128784179688</v>
       </c>
-      <c r="R14" s="14">
+      <c r="R14" s="8">
         <v>0</v>
       </c>
-      <c r="S14" s="14">
+      <c r="S14" s="8">
         <v>14</v>
       </c>
-      <c r="T14" s="14">
+      <c r="T14" s="8">
         <v>4.9592554569244403</v>
       </c>
-      <c r="U14" s="14">
+      <c r="U14" s="8">
         <v>11.0007445812225</v>
       </c>
-      <c r="V14" s="14">
+      <c r="V14" s="8">
         <v>7.9800000190734899</v>
       </c>
       <c r="W14" t="s">
@@ -3352,10 +3352,10 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
+      <c r="A15" s="7">
         <v>3</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="7">
         <v>8</v>
       </c>
       <c r="C15" t="s">
@@ -3388,34 +3388,34 @@
       <c r="L15" t="s">
         <v>103</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="8">
         <v>32.300975799560547</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N15" s="8">
         <v>27.936664581298828</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O15" s="8">
         <v>10.492995262145996</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P15" s="8">
         <v>8.6609001159667969</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="Q15" s="8">
         <v>59.168998718261719</v>
       </c>
-      <c r="R15" s="14">
+      <c r="R15" s="8">
         <v>8.7200002670288086</v>
       </c>
-      <c r="S15" s="14">
+      <c r="S15" s="8">
         <v>34.299999237060547</v>
       </c>
-      <c r="T15" s="14">
+      <c r="T15" s="8">
         <v>11</v>
       </c>
-      <c r="U15" s="14">
+      <c r="U15" s="8">
         <v>24</v>
       </c>
-      <c r="V15" s="14">
+      <c r="V15" s="8">
         <v>18</v>
       </c>
       <c r="W15" t="s">
@@ -3423,10 +3423,10 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
+      <c r="A16" s="7">
         <v>3</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="7">
         <v>10</v>
       </c>
       <c r="C16" t="s">
@@ -3459,34 +3459,34 @@
       <c r="L16" t="s">
         <v>126</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="8">
         <v>6.1998071670532227</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N16" s="8">
         <v>74.048751831054688</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O16" s="8">
         <v>2.7022626399993896</v>
       </c>
-      <c r="P16" s="14">
+      <c r="P16" s="8">
         <v>67.022598266601562</v>
       </c>
-      <c r="Q16" s="14">
+      <c r="Q16" s="8">
         <v>79.263801574707031</v>
       </c>
-      <c r="R16" s="14">
+      <c r="R16" s="8">
         <v>83</v>
       </c>
-      <c r="S16" s="14">
+      <c r="S16" s="8">
         <v>75.300003051757812</v>
       </c>
-      <c r="T16" s="14">
+      <c r="T16" s="8">
         <v>80</v>
       </c>
-      <c r="U16" s="14">
+      <c r="U16" s="8">
         <v>77</v>
       </c>
-      <c r="V16" s="14">
+      <c r="V16" s="8">
         <v>78.5</v>
       </c>
       <c r="W16" t="s">
@@ -3494,10 +3494,10 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
+      <c r="A17" s="7">
         <v>3</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="7">
         <v>11</v>
       </c>
       <c r="C17" t="s">
@@ -3530,34 +3530,34 @@
       <c r="L17" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="8">
         <v>9.7581205368041992</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="8">
         <v>2.2601428031921387</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O17" s="8">
         <v>0.59012103080749512</v>
       </c>
-      <c r="P17" s="14">
+      <c r="P17" s="8">
         <v>1.1030927896499634</v>
       </c>
-      <c r="Q17" s="14">
+      <c r="Q17" s="8">
         <v>4.2432432174682617</v>
       </c>
-      <c r="R17" s="14">
+      <c r="R17" s="8">
         <v>1</v>
       </c>
-      <c r="S17" s="14">
+      <c r="S17" s="8">
         <v>2</v>
       </c>
-      <c r="T17" s="14">
+      <c r="T17" s="8">
         <v>1.25</v>
       </c>
-      <c r="U17" s="14">
+      <c r="U17" s="8">
         <v>1.75</v>
       </c>
-      <c r="V17" s="14">
+      <c r="V17" s="8">
         <v>1.5</v>
       </c>
       <c r="W17" t="s">
@@ -3565,10 +3565,10 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
+      <c r="A18" s="7">
         <v>3</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="7">
         <v>12</v>
       </c>
       <c r="C18" t="s">
@@ -3601,34 +3601,34 @@
       <c r="L18" t="s">
         <v>88</v>
       </c>
-      <c r="M18" s="14">
+      <c r="M18" s="8">
         <v>17.226892471313477</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N18" s="8">
         <v>2.1569344997406006</v>
       </c>
-      <c r="O18" s="14">
+      <c r="O18" s="8">
         <v>0.64287149906158447</v>
       </c>
-      <c r="P18" s="14">
+      <c r="P18" s="8">
         <v>1</v>
       </c>
-      <c r="Q18" s="14">
+      <c r="Q18" s="8">
         <v>3.6287016868591309</v>
       </c>
-      <c r="R18" s="14">
+      <c r="R18" s="8">
         <v>1</v>
       </c>
-      <c r="S18" s="14">
+      <c r="S18" s="8">
         <v>2</v>
       </c>
-      <c r="T18" s="14">
+      <c r="T18" s="8">
         <v>1.25</v>
       </c>
-      <c r="U18" s="14">
+      <c r="U18" s="8">
         <v>1.75</v>
       </c>
-      <c r="V18" s="14">
+      <c r="V18" s="8">
         <v>1.5</v>
       </c>
       <c r="W18" t="s">
@@ -3636,10 +3636,10 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
+      <c r="A19" s="7">
         <v>3</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="7">
         <v>15</v>
       </c>
       <c r="C19" t="s">
@@ -3672,34 +3672,34 @@
       <c r="L19" t="s">
         <v>103</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M19" s="8">
         <v>0.12001079320907593</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N19" s="8">
         <v>4.091515064239502</v>
       </c>
-      <c r="O19" s="14">
+      <c r="O19" s="8">
         <v>1.3342108726501465</v>
       </c>
-      <c r="P19" s="14">
+      <c r="P19" s="8">
         <v>1.9387944936752319</v>
       </c>
-      <c r="Q19" s="14">
+      <c r="Q19" s="8">
         <v>8.771763801574707</v>
       </c>
-      <c r="R19" s="14">
+      <c r="R19" s="8">
         <v>1</v>
       </c>
-      <c r="S19" s="14">
+      <c r="S19" s="8">
         <v>2</v>
       </c>
-      <c r="T19" s="14">
+      <c r="T19" s="8">
         <v>1.25</v>
       </c>
-      <c r="U19" s="14">
+      <c r="U19" s="8">
         <v>1.75</v>
       </c>
-      <c r="V19" s="14">
+      <c r="V19" s="8">
         <v>1.5</v>
       </c>
       <c r="W19" t="s">
@@ -3707,10 +3707,10 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+      <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="7">
         <v>18</v>
       </c>
       <c r="C20" t="s">
@@ -3743,34 +3743,34 @@
       <c r="L20" t="s">
         <v>126</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="8">
         <v>26.796298980712891</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="8">
         <v>2.0917527675628662</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20" s="8">
         <v>0.96360504627227783</v>
       </c>
-      <c r="P20" s="14">
+      <c r="P20" s="8">
         <v>0.4158235490322113</v>
       </c>
-      <c r="Q20" s="14">
+      <c r="Q20" s="8">
         <v>5.6722836494445801</v>
       </c>
-      <c r="R20" s="14">
+      <c r="R20" s="8">
         <v>1</v>
       </c>
-      <c r="S20" s="14">
+      <c r="S20" s="8">
         <v>2</v>
       </c>
-      <c r="T20" s="14">
+      <c r="T20" s="8">
         <v>1.25</v>
       </c>
-      <c r="U20" s="14">
+      <c r="U20" s="8">
         <v>1.75</v>
       </c>
-      <c r="V20" s="14">
+      <c r="V20" s="8">
         <v>1.5</v>
       </c>
       <c r="W20" t="s">
@@ -3778,10 +3778,10 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" s="13">
+      <c r="A21" s="7">
         <v>4</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="7">
         <v>2</v>
       </c>
       <c r="C21" t="s">
@@ -3814,34 +3814,34 @@
       <c r="L21" t="s">
         <v>146</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M21" s="8">
         <v>25.626443862915039</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N21" s="8">
         <v>50.764705657958984</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O21" s="8">
         <v>6.6380367279052734</v>
       </c>
-      <c r="P21" s="14">
+      <c r="P21" s="8">
         <v>38</v>
       </c>
-      <c r="Q21" s="14">
+      <c r="Q21" s="8">
         <v>68</v>
       </c>
-      <c r="R21" s="14">
+      <c r="R21" s="8">
         <v>100</v>
       </c>
-      <c r="S21" s="14">
+      <c r="S21" s="8">
         <v>33.799999237060547</v>
       </c>
-      <c r="T21" s="14">
+      <c r="T21" s="8">
         <v>80</v>
       </c>
-      <c r="U21" s="14">
+      <c r="U21" s="8">
         <v>35</v>
       </c>
-      <c r="V21" s="14">
+      <c r="V21" s="8">
         <v>50</v>
       </c>
       <c r="W21" t="s">
@@ -3849,10 +3849,10 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="13">
+      <c r="A22" s="7">
         <v>4</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="7">
         <v>3</v>
       </c>
       <c r="C22" t="s">
@@ -3885,34 +3885,34 @@
       <c r="L22" t="s">
         <v>155</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M22" s="8">
         <v>15.006253242492676</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N22" s="8">
         <v>72.270591735839844</v>
       </c>
-      <c r="O22" s="14">
+      <c r="O22" s="8">
         <v>8.0305986404418945</v>
       </c>
-      <c r="P22" s="14">
+      <c r="P22" s="8">
         <v>50</v>
       </c>
-      <c r="Q22" s="14">
+      <c r="Q22" s="8">
         <v>86.5</v>
       </c>
-      <c r="R22" s="14">
+      <c r="R22" s="8">
         <v>89.919998168945312</v>
       </c>
-      <c r="S22" s="14">
+      <c r="S22" s="8">
         <v>73.599998474121094</v>
       </c>
-      <c r="T22" s="14">
+      <c r="T22" s="8">
         <v>88.6170845031738</v>
       </c>
-      <c r="U22" s="14">
+      <c r="U22" s="8">
         <v>80</v>
       </c>
-      <c r="V22" s="14">
+      <c r="V22" s="8">
         <v>85</v>
       </c>
       <c r="W22" t="s">
@@ -3920,10 +3920,10 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
+      <c r="A23" s="7">
         <v>4</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="7">
         <v>5</v>
       </c>
       <c r="C23" t="s">
@@ -3956,34 +3956,34 @@
       <c r="L23" t="s">
         <v>103</v>
       </c>
-      <c r="M23" s="14">
+      <c r="M23" s="8">
         <v>0</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N23" s="8">
         <v>11.580370903015137</v>
       </c>
-      <c r="O23" s="14">
+      <c r="O23" s="8">
         <v>2.8513092994689941</v>
       </c>
-      <c r="P23" s="14">
+      <c r="P23" s="8">
         <v>4.999821662902832</v>
       </c>
-      <c r="Q23" s="14">
+      <c r="Q23" s="8">
         <v>18.758411407470703</v>
       </c>
-      <c r="R23" s="14">
+      <c r="R23" s="8">
         <v>45.080001831054688</v>
       </c>
-      <c r="S23" s="14">
+      <c r="S23" s="8">
         <v>23</v>
       </c>
-      <c r="T23" s="14">
+      <c r="T23" s="8">
         <v>40.116624355316198</v>
       </c>
-      <c r="U23" s="14">
+      <c r="U23" s="8">
         <v>27.119375705719001</v>
       </c>
-      <c r="V23" s="14">
+      <c r="V23" s="8">
         <v>33</v>
       </c>
       <c r="W23" t="s">
@@ -3991,10 +3991,10 @@
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A24" s="13">
+      <c r="A24" s="7">
         <v>4</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="7">
         <v>6</v>
       </c>
       <c r="C24" t="s">
@@ -4027,34 +4027,34 @@
       <c r="L24" t="s">
         <v>155</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M24" s="8">
         <v>23.079328536987305</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N24" s="8">
         <v>40.906654357910156</v>
       </c>
-      <c r="O24" s="14">
+      <c r="O24" s="8">
         <v>17.751197814941406</v>
       </c>
-      <c r="P24" s="14">
+      <c r="P24" s="8">
         <v>2.2523884773254395</v>
       </c>
-      <c r="Q24" s="14">
+      <c r="Q24" s="8">
         <v>73.010566711425781</v>
       </c>
-      <c r="R24" s="14">
+      <c r="R24" s="8">
         <v>0</v>
       </c>
-      <c r="S24" s="14">
+      <c r="S24" s="8">
         <v>48.803646087646484</v>
       </c>
-      <c r="T24" s="14">
+      <c r="T24" s="8">
         <v>5</v>
       </c>
-      <c r="U24" s="14">
+      <c r="U24" s="8">
         <v>39.852957725524902</v>
       </c>
-      <c r="V24" s="14">
+      <c r="V24" s="8">
         <v>28.465700149536101</v>
       </c>
       <c r="W24" t="s">
@@ -4062,10 +4062,10 @@
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25" s="13">
+      <c r="A25" s="7">
         <v>4</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="7">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -4098,34 +4098,34 @@
       <c r="L25" t="s">
         <v>103</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M25" s="8">
         <v>2.0925676822662354</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N25" s="8">
         <v>3.0909535884857178</v>
       </c>
-      <c r="O25" s="14">
+      <c r="O25" s="8">
         <v>0.84815382957458496</v>
       </c>
-      <c r="P25" s="14">
+      <c r="P25" s="8">
         <v>1.462559700012207</v>
       </c>
-      <c r="Q25" s="14">
+      <c r="Q25" s="8">
         <v>5.7543578147888184</v>
       </c>
-      <c r="R25" s="14">
+      <c r="R25" s="8">
         <v>1</v>
       </c>
-      <c r="S25" s="14">
+      <c r="S25" s="8">
         <v>2</v>
       </c>
-      <c r="T25" s="14">
+      <c r="T25" s="8">
         <v>1.25</v>
       </c>
-      <c r="U25" s="14">
+      <c r="U25" s="8">
         <v>1.75</v>
       </c>
-      <c r="V25" s="14">
+      <c r="V25" s="8">
         <v>1.5</v>
       </c>
       <c r="W25" t="s">
@@ -4133,10 +4133,10 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
+      <c r="A26" s="7">
         <v>4</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="7">
         <v>8</v>
       </c>
       <c r="C26" t="s">
@@ -4169,34 +4169,34 @@
       <c r="L26" t="s">
         <v>146</v>
       </c>
-      <c r="M26" s="14">
+      <c r="M26" s="8">
         <v>82.835189819335938</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N26" s="8">
         <v>1.1716480255126953</v>
       </c>
-      <c r="O26" s="14">
+      <c r="O26" s="8">
         <v>0.13006187975406647</v>
       </c>
-      <c r="P26" s="14">
+      <c r="P26" s="8">
         <v>1</v>
       </c>
-      <c r="Q26" s="14">
+      <c r="Q26" s="8">
         <v>1.6410256624221802</v>
       </c>
-      <c r="R26" s="14">
+      <c r="R26" s="8">
         <v>1</v>
       </c>
-      <c r="S26" s="14">
+      <c r="S26" s="8">
         <v>2</v>
       </c>
-      <c r="T26" s="14">
+      <c r="T26" s="8">
         <v>1.25</v>
       </c>
-      <c r="U26" s="14">
+      <c r="U26" s="8">
         <v>1.75</v>
       </c>
-      <c r="V26" s="14">
+      <c r="V26" s="8">
         <v>1.5</v>
       </c>
       <c r="W26" t="s">
@@ -4204,10 +4204,10 @@
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
+      <c r="A27" s="7">
         <v>4</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="7">
         <v>9</v>
       </c>
       <c r="C27" t="s">
@@ -4240,34 +4240,34 @@
       <c r="L27" t="s">
         <v>155</v>
       </c>
-      <c r="M27" s="14">
+      <c r="M27" s="8">
         <v>10.121955871582031</v>
       </c>
-      <c r="N27" s="14">
+      <c r="N27" s="8">
         <v>2.4474680423736572</v>
       </c>
-      <c r="O27" s="14">
+      <c r="O27" s="8">
         <v>0.80566656589508057</v>
       </c>
-      <c r="P27" s="14">
+      <c r="P27" s="8">
         <v>1.0499999523162842</v>
       </c>
-      <c r="Q27" s="14">
+      <c r="Q27" s="8">
         <v>4.7619047164916992</v>
       </c>
-      <c r="R27" s="14">
+      <c r="R27" s="8">
         <v>1</v>
       </c>
-      <c r="S27" s="14">
+      <c r="S27" s="8">
         <v>2</v>
       </c>
-      <c r="T27" s="14">
+      <c r="T27" s="8">
         <v>1.25</v>
       </c>
-      <c r="U27" s="14">
+      <c r="U27" s="8">
         <v>1.75</v>
       </c>
-      <c r="V27" s="14">
+      <c r="V27" s="8">
         <v>1.5</v>
       </c>
       <c r="W27" t="s">
@@ -4275,10 +4275,10 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A28" s="13">
+      <c r="A28" s="7">
         <v>4</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="7">
         <v>10</v>
       </c>
       <c r="C28" t="s">
@@ -4311,34 +4311,34 @@
       <c r="L28" t="s">
         <v>185</v>
       </c>
-      <c r="M28" s="14">
+      <c r="M28" s="8">
         <v>2.8725876808166504</v>
       </c>
-      <c r="N28" s="14">
+      <c r="N28" s="8">
         <v>3.6562721729278564</v>
       </c>
-      <c r="O28" s="14">
+      <c r="O28" s="8">
         <v>1.6501413583755493</v>
       </c>
-      <c r="P28" s="14">
+      <c r="P28" s="8">
         <v>1.0987893342971802</v>
       </c>
-      <c r="Q28" s="14">
+      <c r="Q28" s="8">
         <v>10.737180709838867</v>
       </c>
-      <c r="R28" s="14">
+      <c r="R28" s="8">
         <v>1</v>
       </c>
-      <c r="S28" s="14">
+      <c r="S28" s="8">
         <v>2</v>
       </c>
-      <c r="T28" s="14">
+      <c r="T28" s="8">
         <v>1.25</v>
       </c>
-      <c r="U28" s="14">
+      <c r="U28" s="8">
         <v>1.75</v>
       </c>
-      <c r="V28" s="14">
+      <c r="V28" s="8">
         <v>1.5</v>
       </c>
       <c r="W28" t="s">
@@ -4346,10 +4346,10 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29" s="13">
+      <c r="A29" s="7">
         <v>4</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="7">
         <v>11</v>
       </c>
       <c r="C29" t="s">
@@ -4382,34 +4382,34 @@
       <c r="L29" t="s">
         <v>155</v>
       </c>
-      <c r="M29" s="14">
+      <c r="M29" s="8">
         <v>2.0408163070678711</v>
       </c>
-      <c r="N29" s="14">
+      <c r="N29" s="8">
         <v>8.5285625457763672</v>
       </c>
-      <c r="O29" s="14">
+      <c r="O29" s="8">
         <v>8.0523395538330078</v>
       </c>
-      <c r="P29" s="14">
+      <c r="P29" s="8">
         <v>1</v>
       </c>
-      <c r="Q29" s="14">
+      <c r="Q29" s="8">
         <v>42.055385589599609</v>
       </c>
-      <c r="R29" s="14">
+      <c r="R29" s="8">
         <v>1</v>
       </c>
-      <c r="S29" s="14">
+      <c r="S29" s="8">
         <v>2</v>
       </c>
-      <c r="T29" s="14">
+      <c r="T29" s="8">
         <v>1.25</v>
       </c>
-      <c r="U29" s="14">
+      <c r="U29" s="8">
         <v>1.75</v>
       </c>
-      <c r="V29" s="14">
+      <c r="V29" s="8">
         <v>1.5</v>
       </c>
       <c r="W29" t="s">
@@ -4417,10 +4417,10 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="13">
+      <c r="A30" s="7">
         <v>5</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="7">
         <v>1</v>
       </c>
       <c r="C30" t="s">
@@ -4430,7 +4430,7 @@
         <v>190</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>507</v>
       </c>
       <c r="F30" t="s">
         <v>26</v>
@@ -4445,63 +4445,63 @@
         <v>70</v>
       </c>
       <c r="J30" t="s">
+        <v>191</v>
+      </c>
+      <c r="K30" t="s">
         <v>192</v>
-      </c>
-      <c r="K30" t="s">
-        <v>193</v>
       </c>
       <c r="L30" t="s">
         <v>56</v>
       </c>
-      <c r="M30" s="14">
+      <c r="M30" s="8">
         <v>34.106365203857422</v>
       </c>
-      <c r="N30" s="14">
+      <c r="N30" s="8">
         <v>13.876179695129395</v>
       </c>
-      <c r="O30" s="14">
+      <c r="O30" s="8">
         <v>2.1320178508758545</v>
       </c>
-      <c r="P30" s="14">
+      <c r="P30" s="8">
         <v>9.9624338150024414</v>
       </c>
-      <c r="Q30" s="14">
+      <c r="Q30" s="8">
         <v>17.742881774902344</v>
       </c>
-      <c r="R30" s="14">
+      <c r="R30" s="8">
         <v>7</v>
       </c>
-      <c r="S30" s="14">
+      <c r="S30" s="8">
         <v>17.425642013549805</v>
       </c>
-      <c r="T30" s="14">
+      <c r="T30" s="8">
         <v>11.8</v>
       </c>
-      <c r="U30" s="14">
+      <c r="U30" s="8">
         <v>15.8</v>
       </c>
-      <c r="V30" s="14">
+      <c r="V30" s="8">
         <v>13.8</v>
       </c>
       <c r="W30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>5</v>
+      </c>
+      <c r="B31" s="7">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31" s="13">
-        <v>5</v>
-      </c>
-      <c r="B31" s="13">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>195</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>196</v>
-      </c>
-      <c r="E31" t="s">
-        <v>197</v>
       </c>
       <c r="F31" t="s">
         <v>26</v>
@@ -4513,10 +4513,10 @@
         <v>122</v>
       </c>
       <c r="I31" t="s">
+        <v>197</v>
+      </c>
+      <c r="J31" t="s">
         <v>198</v>
-      </c>
-      <c r="J31" t="s">
-        <v>199</v>
       </c>
       <c r="K31" t="s">
         <v>31</v>
@@ -4524,58 +4524,58 @@
       <c r="L31" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="14">
+      <c r="M31" s="8">
         <v>0</v>
       </c>
-      <c r="N31" s="14">
+      <c r="N31" s="8">
         <v>41.938465118408203</v>
       </c>
-      <c r="O31" s="14">
+      <c r="O31" s="8">
         <v>3.2294013500213623</v>
       </c>
-      <c r="P31" s="14">
+      <c r="P31" s="8">
         <v>36.257572174072266</v>
       </c>
-      <c r="Q31" s="14">
+      <c r="Q31" s="8">
         <v>49.316726684570312</v>
       </c>
-      <c r="R31" s="14">
+      <c r="R31" s="8">
         <v>100</v>
       </c>
-      <c r="S31" s="14">
+      <c r="S31" s="8">
         <v>90.825691223144531</v>
       </c>
-      <c r="T31" s="14">
+      <c r="T31" s="8">
         <v>96</v>
       </c>
-      <c r="U31" s="14">
+      <c r="U31" s="8">
         <v>93</v>
       </c>
-      <c r="V31" s="14">
+      <c r="V31" s="8">
         <v>94.515541076660199</v>
       </c>
       <c r="W31" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <v>5</v>
+      </c>
+      <c r="B32" s="7">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A32" s="13">
-        <v>5</v>
-      </c>
-      <c r="B32" s="13">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>201</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>202</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>203</v>
-      </c>
-      <c r="F32" t="s">
-        <v>204</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -4584,45 +4584,45 @@
         <v>28</v>
       </c>
       <c r="I32" t="s">
+        <v>204</v>
+      </c>
+      <c r="J32" t="s">
         <v>205</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>206</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>207</v>
       </c>
-      <c r="L32" t="s">
-        <v>208</v>
-      </c>
-      <c r="M32" s="14">
+      <c r="M32" s="8">
         <v>26.04071044921875</v>
       </c>
-      <c r="N32" s="14">
+      <c r="N32" s="8">
         <v>1.8558446168899536</v>
       </c>
-      <c r="O32" s="14">
+      <c r="O32" s="8">
         <v>0.45562601089477539</v>
       </c>
-      <c r="P32" s="14">
+      <c r="P32" s="8">
         <v>1.2081948518753052</v>
       </c>
-      <c r="Q32" s="14">
+      <c r="Q32" s="8">
         <v>3.4777622222900391</v>
       </c>
-      <c r="R32" s="14">
+      <c r="R32" s="8">
         <v>1</v>
       </c>
-      <c r="S32" s="14">
+      <c r="S32" s="8">
         <v>2</v>
       </c>
-      <c r="T32" s="14">
+      <c r="T32" s="8">
         <v>1.25</v>
       </c>
-      <c r="U32" s="14">
+      <c r="U32" s="8">
         <v>1.75</v>
       </c>
-      <c r="V32" s="14">
+      <c r="V32" s="8">
         <v>1.5</v>
       </c>
       <c r="W32" t="s">
@@ -4630,20 +4630,20 @@
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="13">
+      <c r="A33" s="7">
         <v>5</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="7">
         <v>9</v>
       </c>
       <c r="C33" t="s">
+        <v>208</v>
+      </c>
+      <c r="D33" t="s">
         <v>209</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>210</v>
-      </c>
-      <c r="E33" t="s">
-        <v>211</v>
       </c>
       <c r="F33" t="s">
         <v>44</v>
@@ -4655,10 +4655,10 @@
         <v>28</v>
       </c>
       <c r="I33" t="s">
+        <v>211</v>
+      </c>
+      <c r="J33" t="s">
         <v>212</v>
-      </c>
-      <c r="J33" t="s">
-        <v>213</v>
       </c>
       <c r="K33" t="s">
         <v>31</v>
@@ -4666,58 +4666,58 @@
       <c r="L33" t="s">
         <v>103</v>
       </c>
-      <c r="M33" s="14">
+      <c r="M33" s="8">
         <v>7.4319558143615723</v>
       </c>
-      <c r="N33" s="14">
+      <c r="N33" s="8">
         <v>2.0389752388000488</v>
       </c>
-      <c r="O33" s="14">
+      <c r="O33" s="8">
         <v>0.23623323440551758</v>
       </c>
-      <c r="P33" s="14">
+      <c r="P33" s="8">
         <v>1.5265523195266724</v>
       </c>
-      <c r="Q33" s="14">
+      <c r="Q33" s="8">
         <v>2.5654261112213135</v>
       </c>
-      <c r="R33" s="14">
+      <c r="R33" s="8">
         <v>1</v>
       </c>
-      <c r="S33" s="14">
+      <c r="S33" s="8">
         <v>2</v>
       </c>
-      <c r="T33" s="14">
+      <c r="T33" s="8">
         <v>1.25</v>
       </c>
-      <c r="U33" s="14">
+      <c r="U33" s="8">
         <v>1.75</v>
       </c>
-      <c r="V33" s="14">
+      <c r="V33" s="8">
         <v>1.5</v>
       </c>
       <c r="W33" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <v>6</v>
+      </c>
+      <c r="B34" s="7">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34" s="13">
-        <v>6</v>
-      </c>
-      <c r="B34" s="13">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>215</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>216</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>217</v>
-      </c>
-      <c r="F34" t="s">
-        <v>218</v>
       </c>
       <c r="G34" t="s">
         <v>69</v>
@@ -4729,63 +4729,63 @@
         <v>70</v>
       </c>
       <c r="J34" t="s">
+        <v>218</v>
+      </c>
+      <c r="K34" t="s">
         <v>219</v>
-      </c>
-      <c r="K34" t="s">
-        <v>220</v>
       </c>
       <c r="L34" t="s">
         <v>32</v>
       </c>
-      <c r="M34" s="14">
+      <c r="M34" s="8">
         <v>66.696533203125</v>
       </c>
-      <c r="N34" s="14">
+      <c r="N34" s="8">
         <v>277.1171875</v>
       </c>
-      <c r="O34" s="14">
+      <c r="O34" s="8">
         <v>1048.49072265625</v>
       </c>
-      <c r="P34" s="14">
+      <c r="P34" s="8">
         <v>7.8967101871967316E-3</v>
       </c>
-      <c r="Q34" s="14">
+      <c r="Q34" s="8">
         <v>7085.33984375</v>
       </c>
-      <c r="R34" s="14">
+      <c r="R34" s="8">
         <v>0.15000000596046448</v>
       </c>
-      <c r="S34" s="14">
+      <c r="S34" s="8">
         <v>250</v>
       </c>
-      <c r="T34" s="14">
+      <c r="T34" s="8">
         <v>20</v>
       </c>
-      <c r="U34" s="14">
+      <c r="U34" s="8">
         <v>80</v>
       </c>
-      <c r="V34" s="14">
+      <c r="V34" s="8">
         <v>50</v>
       </c>
       <c r="W34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <v>6</v>
+      </c>
+      <c r="B35" s="7">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35" s="13">
-        <v>6</v>
-      </c>
-      <c r="B35" s="13">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>222</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>223</v>
-      </c>
-      <c r="E35" t="s">
-        <v>224</v>
       </c>
       <c r="F35" t="s">
         <v>26</v>
@@ -4800,63 +4800,63 @@
         <v>70</v>
       </c>
       <c r="J35" t="s">
+        <v>224</v>
+      </c>
+      <c r="K35" t="s">
         <v>225</v>
-      </c>
-      <c r="K35" t="s">
-        <v>226</v>
       </c>
       <c r="L35" t="s">
         <v>64</v>
       </c>
-      <c r="M35" s="14">
+      <c r="M35" s="8">
         <v>59.599998474121094</v>
       </c>
-      <c r="N35" s="14">
+      <c r="N35" s="8">
         <v>21.576000213623047</v>
       </c>
-      <c r="O35" s="14">
+      <c r="O35" s="8">
         <v>15.568447113037109</v>
       </c>
-      <c r="P35" s="14">
+      <c r="P35" s="8">
         <v>1.2999999523162842</v>
       </c>
-      <c r="Q35" s="14">
+      <c r="Q35" s="8">
         <v>61.200000762939453</v>
       </c>
-      <c r="R35" s="14">
+      <c r="R35" s="8">
         <v>0</v>
       </c>
-      <c r="S35" s="14">
+      <c r="S35" s="8">
         <v>53</v>
       </c>
-      <c r="T35" s="14">
+      <c r="T35" s="8">
         <v>6</v>
       </c>
-      <c r="U35" s="14">
+      <c r="U35" s="8">
         <v>38</v>
       </c>
-      <c r="V35" s="14">
+      <c r="V35" s="8">
         <v>21</v>
       </c>
       <c r="W35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <v>6</v>
+      </c>
+      <c r="B36" s="7">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A36" s="13">
-        <v>6</v>
-      </c>
-      <c r="B36" s="13">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>228</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>229</v>
-      </c>
-      <c r="E36" t="s">
-        <v>230</v>
       </c>
       <c r="F36" t="s">
         <v>26</v>
@@ -4871,63 +4871,63 @@
         <v>70</v>
       </c>
       <c r="J36" t="s">
+        <v>230</v>
+      </c>
+      <c r="K36" t="s">
         <v>231</v>
-      </c>
-      <c r="K36" t="s">
-        <v>232</v>
       </c>
       <c r="L36" t="s">
         <v>73</v>
       </c>
-      <c r="M36" s="14">
+      <c r="M36" s="8">
         <v>47.336154937744141</v>
       </c>
-      <c r="N36" s="14">
+      <c r="N36" s="8">
         <v>62.759429931640625</v>
       </c>
-      <c r="O36" s="14">
+      <c r="O36" s="8">
         <v>19.006296157836914</v>
       </c>
-      <c r="P36" s="14">
+      <c r="P36" s="8">
         <v>19.795221328735352</v>
       </c>
-      <c r="Q36" s="14">
+      <c r="Q36" s="8">
         <v>93.596061706542969</v>
       </c>
-      <c r="R36" s="14">
+      <c r="R36" s="8">
         <v>100</v>
       </c>
-      <c r="S36" s="14">
+      <c r="S36" s="8">
         <v>30</v>
       </c>
-      <c r="T36" s="14">
+      <c r="T36" s="8">
         <v>82.020536422729506</v>
       </c>
-      <c r="U36" s="14">
+      <c r="U36" s="8">
         <v>43.634607315063498</v>
       </c>
-      <c r="V36" s="14">
+      <c r="V36" s="8">
         <v>63</v>
       </c>
       <c r="W36" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <v>6</v>
+      </c>
+      <c r="B37" s="7">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37" s="13">
-        <v>6</v>
-      </c>
-      <c r="B37" s="13">
-        <v>4</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>234</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>235</v>
-      </c>
-      <c r="E37" t="s">
-        <v>236</v>
       </c>
       <c r="F37" t="s">
         <v>26</v>
@@ -4942,63 +4942,63 @@
         <v>70</v>
       </c>
       <c r="J37" t="s">
+        <v>236</v>
+      </c>
+      <c r="K37" t="s">
         <v>237</v>
-      </c>
-      <c r="K37" t="s">
-        <v>238</v>
       </c>
       <c r="L37" t="s">
         <v>32</v>
       </c>
-      <c r="M37" s="14">
+      <c r="M37" s="8">
         <v>62.651866912841797</v>
       </c>
-      <c r="N37" s="14">
+      <c r="N37" s="8">
         <v>78.995231628417969</v>
       </c>
-      <c r="O37" s="14">
+      <c r="O37" s="8">
         <v>22.160154342651367</v>
       </c>
-      <c r="P37" s="14">
+      <c r="P37" s="8">
         <v>15.929203987121582</v>
       </c>
-      <c r="Q37" s="14">
+      <c r="Q37" s="8">
         <v>100</v>
       </c>
-      <c r="R37" s="14">
+      <c r="R37" s="8">
         <v>100</v>
       </c>
-      <c r="S37" s="14">
+      <c r="S37" s="8">
         <v>50</v>
       </c>
-      <c r="T37" s="14">
+      <c r="T37" s="8">
         <v>90</v>
       </c>
-      <c r="U37" s="14">
+      <c r="U37" s="8">
         <v>70</v>
       </c>
-      <c r="V37" s="14">
+      <c r="V37" s="8">
         <v>80</v>
       </c>
       <c r="W37" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <v>7</v>
+      </c>
+      <c r="B38" s="7">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38" s="13">
-        <v>7</v>
-      </c>
-      <c r="B38" s="13">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>240</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>241</v>
-      </c>
-      <c r="E38" t="s">
-        <v>242</v>
       </c>
       <c r="F38" t="s">
         <v>26</v>
@@ -5013,42 +5013,42 @@
         <v>70</v>
       </c>
       <c r="J38" t="s">
+        <v>242</v>
+      </c>
+      <c r="K38" t="s">
         <v>243</v>
-      </c>
-      <c r="K38" t="s">
-        <v>244</v>
       </c>
       <c r="L38" t="s">
         <v>88</v>
       </c>
-      <c r="M38" s="14">
+      <c r="M38" s="8">
         <v>30.194948196411133</v>
       </c>
-      <c r="N38" s="14">
+      <c r="N38" s="8">
         <v>14.376520156860352</v>
       </c>
-      <c r="O38" s="14">
+      <c r="O38" s="8">
         <v>11.434589385986328</v>
       </c>
-      <c r="P38" s="14">
+      <c r="P38" s="8">
         <v>2.7557699680328369</v>
       </c>
-      <c r="Q38" s="14">
+      <c r="Q38" s="8">
         <v>49.081211090087891</v>
       </c>
-      <c r="R38" s="14">
+      <c r="R38" s="8">
         <v>38.200000762939453</v>
       </c>
-      <c r="S38" s="14">
+      <c r="S38" s="8">
         <v>3.5</v>
       </c>
-      <c r="T38" s="14">
+      <c r="T38" s="8">
         <v>23</v>
       </c>
-      <c r="U38" s="14">
+      <c r="U38" s="8">
         <v>5</v>
       </c>
-      <c r="V38" s="14">
+      <c r="V38" s="8">
         <v>12.5</v>
       </c>
       <c r="W38" t="s">
@@ -5056,20 +5056,20 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A39" s="13">
+      <c r="A39" s="7">
         <v>7</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="7">
         <v>2</v>
       </c>
       <c r="C39" t="s">
+        <v>244</v>
+      </c>
+      <c r="D39" t="s">
         <v>245</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>246</v>
-      </c>
-      <c r="E39" t="s">
-        <v>247</v>
       </c>
       <c r="F39" t="s">
         <v>26</v>
@@ -5084,42 +5084,42 @@
         <v>70</v>
       </c>
       <c r="J39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L39" t="s">
         <v>32</v>
       </c>
-      <c r="M39" s="14">
+      <c r="M39" s="8">
         <v>39.870182037353516</v>
       </c>
-      <c r="N39" s="14">
+      <c r="N39" s="8">
         <v>40.516975402832031</v>
       </c>
-      <c r="O39" s="14">
+      <c r="O39" s="8">
         <v>36.006187438964844</v>
       </c>
-      <c r="P39" s="14">
+      <c r="P39" s="8">
         <v>0.66664791107177734</v>
       </c>
-      <c r="Q39" s="14">
+      <c r="Q39" s="8">
         <v>100.01510620117188</v>
       </c>
-      <c r="R39" s="14">
+      <c r="R39" s="8">
         <v>100</v>
       </c>
-      <c r="S39" s="14">
+      <c r="S39" s="8">
         <v>1.0937001705169678</v>
       </c>
-      <c r="T39" s="14">
+      <c r="T39" s="8">
         <v>74.745899200439496</v>
       </c>
-      <c r="U39" s="14">
+      <c r="U39" s="8">
         <v>5</v>
       </c>
-      <c r="V39" s="14">
+      <c r="V39" s="8">
         <v>40</v>
       </c>
       <c r="W39" t="s">
@@ -5127,20 +5127,20 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A40" s="13">
+      <c r="A40" s="7">
         <v>7</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="7">
         <v>3</v>
       </c>
       <c r="C40" t="s">
+        <v>248</v>
+      </c>
+      <c r="D40" t="s">
         <v>249</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>250</v>
-      </c>
-      <c r="E40" t="s">
-        <v>251</v>
       </c>
       <c r="F40" t="s">
         <v>26</v>
@@ -5155,66 +5155,66 @@
         <v>70</v>
       </c>
       <c r="J40" t="s">
+        <v>251</v>
+      </c>
+      <c r="K40" t="s">
         <v>252</v>
-      </c>
-      <c r="K40" t="s">
-        <v>253</v>
       </c>
       <c r="L40" t="s">
         <v>88</v>
       </c>
-      <c r="M40" s="14">
+      <c r="M40" s="8">
         <v>37.041667938232422</v>
       </c>
-      <c r="N40" s="14">
+      <c r="N40" s="8">
         <v>32.5</v>
       </c>
-      <c r="O40" s="14">
+      <c r="O40" s="8">
         <v>8.1672563552856445</v>
       </c>
-      <c r="P40" s="14">
+      <c r="P40" s="8">
         <v>19</v>
       </c>
-      <c r="Q40" s="14">
+      <c r="Q40" s="8">
         <v>64</v>
       </c>
-      <c r="R40" s="14">
+      <c r="R40" s="8">
         <v>2</v>
       </c>
-      <c r="S40" s="14">
+      <c r="S40" s="8">
         <v>50</v>
       </c>
-      <c r="T40" s="14">
+      <c r="T40" s="8">
         <v>3</v>
       </c>
-      <c r="U40" s="14">
+      <c r="U40" s="8">
         <v>11</v>
       </c>
-      <c r="V40" s="14">
+      <c r="V40" s="8">
         <v>6</v>
       </c>
       <c r="W40" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
+        <v>7</v>
+      </c>
+      <c r="B41" s="7">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41" s="13">
-        <v>7</v>
-      </c>
-      <c r="B41" s="13">
-        <v>4</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>255</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>256</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>257</v>
-      </c>
-      <c r="F41" t="s">
-        <v>258</v>
       </c>
       <c r="G41" t="s">
         <v>69</v>
@@ -5226,63 +5226,63 @@
         <v>70</v>
       </c>
       <c r="J41" t="s">
+        <v>258</v>
+      </c>
+      <c r="K41" t="s">
         <v>259</v>
-      </c>
-      <c r="K41" t="s">
-        <v>260</v>
       </c>
       <c r="L41" t="s">
         <v>64</v>
       </c>
-      <c r="M41" s="14">
+      <c r="M41" s="8">
         <v>49.779102325439453</v>
       </c>
-      <c r="N41" s="14">
+      <c r="N41" s="8">
         <v>0.47556048631668091</v>
       </c>
-      <c r="O41" s="14">
+      <c r="O41" s="8">
         <v>0.22052733600139618</v>
       </c>
-      <c r="P41" s="14">
+      <c r="P41" s="8">
         <v>5.8967010118067265E-3</v>
       </c>
-      <c r="Q41" s="14">
+      <c r="Q41" s="8">
         <v>0.94483292102813721</v>
       </c>
-      <c r="R41" s="14">
+      <c r="R41" s="8">
         <v>4.7200001776218414E-2</v>
       </c>
-      <c r="S41" s="14">
+      <c r="S41" s="8">
         <v>0.89999997615814209</v>
       </c>
-      <c r="T41" s="14">
+      <c r="T41" s="8">
         <v>0.3</v>
       </c>
-      <c r="U41" s="14">
+      <c r="U41" s="8">
         <v>0.69</v>
       </c>
-      <c r="V41" s="14">
+      <c r="V41" s="8">
         <v>0.48</v>
       </c>
       <c r="W41" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
+        <v>8</v>
+      </c>
+      <c r="B42" s="7">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A42" s="13">
-        <v>8</v>
-      </c>
-      <c r="B42" s="13">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>262</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>263</v>
-      </c>
-      <c r="E42" t="s">
-        <v>264</v>
       </c>
       <c r="F42" t="s">
         <v>26</v>
@@ -5294,45 +5294,45 @@
         <v>28</v>
       </c>
       <c r="I42" t="s">
+        <v>264</v>
+      </c>
+      <c r="J42" t="s">
         <v>265</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>266</v>
-      </c>
-      <c r="K42" t="s">
-        <v>267</v>
       </c>
       <c r="L42" t="s">
         <v>88</v>
       </c>
-      <c r="M42" s="14">
+      <c r="M42" s="8">
         <v>15.711496353149414</v>
       </c>
-      <c r="N42" s="14">
+      <c r="N42" s="8">
         <v>17.200723648071289</v>
       </c>
-      <c r="O42" s="14">
+      <c r="O42" s="8">
         <v>4.1053056716918945</v>
       </c>
-      <c r="P42" s="14">
+      <c r="P42" s="8">
         <v>8.0369119644165039</v>
       </c>
-      <c r="Q42" s="14">
+      <c r="Q42" s="8">
         <v>28.016500473022461</v>
       </c>
-      <c r="R42" s="14">
+      <c r="R42" s="8">
         <v>7.6999998092651367</v>
       </c>
-      <c r="S42" s="14">
+      <c r="S42" s="8">
         <v>17</v>
       </c>
-      <c r="T42" s="14">
+      <c r="T42" s="8">
         <v>9</v>
       </c>
-      <c r="U42" s="14">
+      <c r="U42" s="8">
         <v>14</v>
       </c>
-      <c r="V42" s="14">
+      <c r="V42" s="8">
         <v>11.9379997253418</v>
       </c>
       <c r="W42" t="s">
@@ -5340,20 +5340,20 @@
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A43" s="13">
+      <c r="A43" s="7">
         <v>8</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="7">
         <v>2</v>
       </c>
       <c r="C43" t="s">
+        <v>267</v>
+      </c>
+      <c r="D43" t="s">
         <v>268</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>269</v>
-      </c>
-      <c r="E43" t="s">
-        <v>270</v>
       </c>
       <c r="F43" t="s">
         <v>26</v>
@@ -5365,10 +5365,10 @@
         <v>122</v>
       </c>
       <c r="I43" t="s">
+        <v>270</v>
+      </c>
+      <c r="J43" t="s">
         <v>271</v>
-      </c>
-      <c r="J43" t="s">
-        <v>272</v>
       </c>
       <c r="K43" t="s">
         <v>31</v>
@@ -5376,34 +5376,34 @@
       <c r="L43" t="s">
         <v>32</v>
       </c>
-      <c r="M43" s="14">
+      <c r="M43" s="8">
         <v>0</v>
       </c>
-      <c r="N43" s="14">
+      <c r="N43" s="8">
         <v>55.804943084716797</v>
       </c>
-      <c r="O43" s="14">
+      <c r="O43" s="8">
         <v>3.8648078441619873</v>
       </c>
-      <c r="P43" s="14">
+      <c r="P43" s="8">
         <v>43.294677734375</v>
       </c>
-      <c r="Q43" s="14">
+      <c r="Q43" s="8">
         <v>63.0509033203125</v>
       </c>
-      <c r="R43" s="14">
+      <c r="R43" s="8">
         <v>80.180000305175781</v>
       </c>
-      <c r="S43" s="14">
+      <c r="S43" s="8">
         <v>65.199996948242188</v>
       </c>
-      <c r="T43" s="14">
+      <c r="T43" s="8">
         <v>77</v>
       </c>
-      <c r="U43" s="14">
+      <c r="U43" s="8">
         <v>69.003262042999296</v>
       </c>
-      <c r="V43" s="14">
+      <c r="V43" s="8">
         <v>73.148002624511705</v>
       </c>
       <c r="W43" t="s">
@@ -5411,20 +5411,20 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A44" s="13">
+      <c r="A44" s="7">
         <v>8</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="7">
         <v>3</v>
       </c>
       <c r="C44" t="s">
+        <v>272</v>
+      </c>
+      <c r="D44" t="s">
         <v>273</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>274</v>
-      </c>
-      <c r="E44" t="s">
-        <v>275</v>
       </c>
       <c r="F44" t="s">
         <v>44</v>
@@ -5436,10 +5436,10 @@
         <v>28</v>
       </c>
       <c r="I44" t="s">
+        <v>270</v>
+      </c>
+      <c r="J44" t="s">
         <v>271</v>
-      </c>
-      <c r="J44" t="s">
-        <v>272</v>
       </c>
       <c r="K44" t="s">
         <v>31</v>
@@ -5447,34 +5447,34 @@
       <c r="L44" t="s">
         <v>32</v>
       </c>
-      <c r="M44" s="14">
+      <c r="M44" s="8">
         <v>78.592933654785156</v>
       </c>
-      <c r="N44" s="14">
+      <c r="N44" s="8">
         <v>1.2140706777572632</v>
       </c>
-      <c r="O44" s="14">
+      <c r="O44" s="8">
         <v>0.10110530257225037</v>
       </c>
-      <c r="P44" s="14">
+      <c r="P44" s="8">
         <v>1.0863190889358521</v>
       </c>
-      <c r="Q44" s="14">
+      <c r="Q44" s="8">
         <v>1.6809931993484497</v>
       </c>
-      <c r="R44" s="14">
+      <c r="R44" s="8">
         <v>1</v>
       </c>
-      <c r="S44" s="14">
+      <c r="S44" s="8">
         <v>2</v>
       </c>
-      <c r="T44" s="14">
+      <c r="T44" s="8">
         <v>1.25</v>
       </c>
-      <c r="U44" s="14">
+      <c r="U44" s="8">
         <v>1.75</v>
       </c>
-      <c r="V44" s="14">
+      <c r="V44" s="8">
         <v>1.5</v>
       </c>
       <c r="W44" t="s">
@@ -5482,20 +5482,20 @@
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A45" s="13">
+      <c r="A45" s="7">
         <v>8</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="7">
         <v>4</v>
       </c>
       <c r="C45" t="s">
+        <v>275</v>
+      </c>
+      <c r="D45" t="s">
         <v>276</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>277</v>
-      </c>
-      <c r="E45" t="s">
-        <v>278</v>
       </c>
       <c r="F45" t="s">
         <v>44</v>
@@ -5507,45 +5507,45 @@
         <v>28</v>
       </c>
       <c r="I45" t="s">
+        <v>264</v>
+      </c>
+      <c r="J45" t="s">
         <v>265</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>266</v>
-      </c>
-      <c r="K45" t="s">
-        <v>267</v>
       </c>
       <c r="L45" t="s">
         <v>88</v>
       </c>
-      <c r="M45" s="14">
+      <c r="M45" s="8">
         <v>29.175310134887695</v>
       </c>
-      <c r="N45" s="14">
+      <c r="N45" s="8">
         <v>1.8502732515335083</v>
       </c>
-      <c r="O45" s="14">
+      <c r="O45" s="8">
         <v>0.63044953346252441</v>
       </c>
-      <c r="P45" s="14">
+      <c r="P45" s="8">
         <v>1.0315889120101929</v>
       </c>
-      <c r="Q45" s="14">
+      <c r="Q45" s="8">
         <v>4.680030345916748</v>
       </c>
-      <c r="R45" s="14">
+      <c r="R45" s="8">
         <v>1</v>
       </c>
-      <c r="S45" s="14">
+      <c r="S45" s="8">
         <v>2</v>
       </c>
-      <c r="T45" s="14">
+      <c r="T45" s="8">
         <v>1.25</v>
       </c>
-      <c r="U45" s="14">
+      <c r="U45" s="8">
         <v>1.75</v>
       </c>
-      <c r="V45" s="14">
+      <c r="V45" s="8">
         <v>1.5</v>
       </c>
       <c r="W45" t="s">
@@ -5553,20 +5553,20 @@
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A46" s="13">
+      <c r="A46" s="7">
         <v>8</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="7">
         <v>5</v>
       </c>
       <c r="C46" t="s">
+        <v>278</v>
+      </c>
+      <c r="D46" t="s">
         <v>279</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>280</v>
-      </c>
-      <c r="E46" t="s">
-        <v>281</v>
       </c>
       <c r="F46" t="s">
         <v>26</v>
@@ -5578,7 +5578,7 @@
         <v>28</v>
       </c>
       <c r="I46" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J46" t="s">
         <v>166</v>
@@ -5587,57 +5587,57 @@
         <v>167</v>
       </c>
       <c r="L46" t="s">
-        <v>208</v>
-      </c>
-      <c r="M46" s="14">
+        <v>207</v>
+      </c>
+      <c r="M46" s="8">
         <v>1.0880039930343628</v>
       </c>
-      <c r="N46" s="14">
+      <c r="N46" s="8">
         <v>11.013306617736816</v>
       </c>
-      <c r="O46" s="14">
+      <c r="O46" s="8">
         <v>2.8381197452545166</v>
       </c>
-      <c r="P46" s="14">
+      <c r="P46" s="8">
         <v>6.6264386177062988</v>
       </c>
-      <c r="Q46" s="14">
+      <c r="Q46" s="8">
         <v>19.492397308349609</v>
       </c>
-      <c r="R46" s="14">
+      <c r="R46" s="8">
         <v>3.2200000286102295</v>
       </c>
-      <c r="S46" s="14">
+      <c r="S46" s="8">
         <v>7.6999998092651367</v>
       </c>
-      <c r="T46" s="14">
+      <c r="T46" s="8">
         <v>4.2866202592849696</v>
       </c>
-      <c r="U46" s="14">
+      <c r="U46" s="8">
         <v>6.8973797559738204</v>
       </c>
-      <c r="V46" s="14">
+      <c r="V46" s="8">
         <v>5.5920000076293901</v>
       </c>
       <c r="W46" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <v>8</v>
+      </c>
+      <c r="B47" s="7">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A47" s="13">
-        <v>8</v>
-      </c>
-      <c r="B47" s="13">
-        <v>8</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>284</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>285</v>
-      </c>
-      <c r="E47" t="s">
-        <v>286</v>
       </c>
       <c r="F47" t="s">
         <v>44</v>
@@ -5649,7 +5649,7 @@
         <v>28</v>
       </c>
       <c r="I47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J47" t="s">
         <v>166</v>
@@ -5658,36 +5658,36 @@
         <v>167</v>
       </c>
       <c r="L47" t="s">
-        <v>208</v>
-      </c>
-      <c r="M47" s="14">
+        <v>207</v>
+      </c>
+      <c r="M47" s="8">
         <v>2.6440048217773438</v>
       </c>
-      <c r="N47" s="14">
+      <c r="N47" s="8">
         <v>2.7950575351715088</v>
       </c>
-      <c r="O47" s="14">
+      <c r="O47" s="8">
         <v>1.4395112991333008</v>
       </c>
-      <c r="P47" s="14">
+      <c r="P47" s="8">
         <v>1.6480684280395508</v>
       </c>
-      <c r="Q47" s="14">
+      <c r="Q47" s="8">
         <v>10.71124267578125</v>
       </c>
-      <c r="R47" s="14">
+      <c r="R47" s="8">
         <v>1</v>
       </c>
-      <c r="S47" s="14">
+      <c r="S47" s="8">
         <v>2</v>
       </c>
-      <c r="T47" s="14">
+      <c r="T47" s="8">
         <v>1.25</v>
       </c>
-      <c r="U47" s="14">
+      <c r="U47" s="8">
         <v>1.75</v>
       </c>
-      <c r="V47" s="14">
+      <c r="V47" s="8">
         <v>1.5</v>
       </c>
       <c r="W47" t="s">
@@ -5695,20 +5695,20 @@
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A48" s="13">
+      <c r="A48" s="7">
         <v>9</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="7">
         <v>1</v>
       </c>
       <c r="C48" t="s">
+        <v>286</v>
+      </c>
+      <c r="D48" t="s">
         <v>287</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>288</v>
-      </c>
-      <c r="E48" t="s">
-        <v>289</v>
       </c>
       <c r="F48" t="s">
         <v>26</v>
@@ -5720,66 +5720,66 @@
         <v>122</v>
       </c>
       <c r="I48" t="s">
+        <v>289</v>
+      </c>
+      <c r="J48" t="s">
         <v>290</v>
-      </c>
-      <c r="J48" t="s">
-        <v>291</v>
       </c>
       <c r="K48" t="s">
         <v>31</v>
       </c>
       <c r="L48" t="s">
+        <v>291</v>
+      </c>
+      <c r="M48" s="8">
+        <v>45.205905914306641</v>
+      </c>
+      <c r="N48" s="8">
+        <v>72.10980224609375</v>
+      </c>
+      <c r="O48" s="8">
+        <v>8.0165891647338867</v>
+      </c>
+      <c r="P48" s="8">
+        <v>51.200000762939453</v>
+      </c>
+      <c r="Q48" s="8">
+        <v>83.5</v>
+      </c>
+      <c r="R48" s="8">
+        <v>100</v>
+      </c>
+      <c r="S48" s="8">
+        <v>49.099998474121094</v>
+      </c>
+      <c r="T48" s="8">
+        <v>88</v>
+      </c>
+      <c r="U48" s="8">
+        <v>64</v>
+      </c>
+      <c r="V48" s="8">
+        <v>76</v>
+      </c>
+      <c r="W48" t="s">
         <v>292</v>
       </c>
-      <c r="M48" s="14">
-        <v>45.205905914306641</v>
-      </c>
-      <c r="N48" s="14">
-        <v>72.10980224609375</v>
-      </c>
-      <c r="O48" s="14">
-        <v>8.0165891647338867</v>
-      </c>
-      <c r="P48" s="14">
-        <v>51.200000762939453</v>
-      </c>
-      <c r="Q48" s="14">
-        <v>83.5</v>
-      </c>
-      <c r="R48" s="14">
-        <v>100</v>
-      </c>
-      <c r="S48" s="14">
-        <v>49.099998474121094</v>
-      </c>
-      <c r="T48" s="14">
-        <v>88</v>
-      </c>
-      <c r="U48" s="14">
-        <v>64</v>
-      </c>
-      <c r="V48" s="14">
-        <v>76</v>
-      </c>
-      <c r="W48" t="s">
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <v>9</v>
+      </c>
+      <c r="B49" s="7">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A49" s="13">
-        <v>9</v>
-      </c>
-      <c r="B49" s="13">
-        <v>2</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>294</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>295</v>
-      </c>
-      <c r="E49" t="s">
-        <v>296</v>
       </c>
       <c r="F49" t="s">
         <v>26</v>
@@ -5794,63 +5794,63 @@
         <v>70</v>
       </c>
       <c r="J49" t="s">
+        <v>296</v>
+      </c>
+      <c r="K49" t="s">
         <v>297</v>
-      </c>
-      <c r="K49" t="s">
-        <v>298</v>
       </c>
       <c r="L49" t="s">
         <v>88</v>
       </c>
-      <c r="M49" s="14">
+      <c r="M49" s="8">
         <v>63.616558074951172</v>
       </c>
-      <c r="N49" s="14">
+      <c r="N49" s="8">
         <v>19.647058486938477</v>
       </c>
-      <c r="O49" s="14">
+      <c r="O49" s="8">
         <v>10.937684059143066</v>
       </c>
-      <c r="P49" s="14">
+      <c r="P49" s="8">
         <v>5</v>
       </c>
-      <c r="Q49" s="14">
+      <c r="Q49" s="8">
         <v>53</v>
       </c>
-      <c r="R49" s="14">
+      <c r="R49" s="8">
         <v>0</v>
       </c>
-      <c r="S49" s="14">
+      <c r="S49" s="8">
         <v>54</v>
       </c>
-      <c r="T49" s="14">
+      <c r="T49" s="8">
         <v>10</v>
       </c>
-      <c r="U49" s="14">
+      <c r="U49" s="8">
         <v>30</v>
       </c>
-      <c r="V49" s="14">
+      <c r="V49" s="8">
         <v>20</v>
       </c>
       <c r="W49" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
+        <v>9</v>
+      </c>
+      <c r="B50" s="7">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A50" s="13">
-        <v>9</v>
-      </c>
-      <c r="B50" s="13">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>300</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>301</v>
-      </c>
-      <c r="E50" t="s">
-        <v>302</v>
       </c>
       <c r="F50" t="s">
         <v>26</v>
@@ -5862,10 +5862,10 @@
         <v>122</v>
       </c>
       <c r="I50" t="s">
+        <v>302</v>
+      </c>
+      <c r="J50" t="s">
         <v>303</v>
-      </c>
-      <c r="J50" t="s">
-        <v>304</v>
       </c>
       <c r="K50" t="s">
         <v>31</v>
@@ -5873,55 +5873,55 @@
       <c r="L50" t="s">
         <v>103</v>
       </c>
-      <c r="M50" s="14">
+      <c r="M50" s="8">
         <v>7.0881376266479492</v>
       </c>
-      <c r="N50" s="14">
+      <c r="N50" s="8">
         <v>37.842483520507812</v>
       </c>
-      <c r="O50" s="14">
+      <c r="O50" s="8">
         <v>3.7686758041381836</v>
       </c>
-      <c r="P50" s="14">
+      <c r="P50" s="8">
         <v>24.368629455566406</v>
       </c>
-      <c r="Q50" s="14">
+      <c r="Q50" s="8">
         <v>45.194667816162109</v>
       </c>
-      <c r="R50" s="14">
+      <c r="R50" s="8">
         <v>50.799999237060547</v>
       </c>
-      <c r="S50" s="14">
+      <c r="S50" s="8">
         <v>38.978466033935547</v>
       </c>
-      <c r="T50" s="14">
+      <c r="T50" s="8">
         <v>47</v>
       </c>
-      <c r="U50" s="14">
+      <c r="U50" s="8">
         <v>41</v>
       </c>
-      <c r="V50" s="14">
+      <c r="V50" s="8">
         <v>44</v>
       </c>
       <c r="W50" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
+        <v>9</v>
+      </c>
+      <c r="B51" s="7">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A51" s="13">
-        <v>9</v>
-      </c>
-      <c r="B51" s="13">
-        <v>4</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>306</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>307</v>
-      </c>
-      <c r="E51" t="s">
-        <v>308</v>
       </c>
       <c r="F51" t="s">
         <v>44</v>
@@ -5933,45 +5933,45 @@
         <v>28</v>
       </c>
       <c r="I51" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J51" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K51" t="s">
         <v>31</v>
       </c>
       <c r="L51" t="s">
-        <v>292</v>
-      </c>
-      <c r="M51" s="14">
+        <v>291</v>
+      </c>
+      <c r="M51" s="8">
         <v>7.1656131744384766</v>
       </c>
-      <c r="N51" s="14">
+      <c r="N51" s="8">
         <v>2.3285605907440186</v>
       </c>
-      <c r="O51" s="14">
+      <c r="O51" s="8">
         <v>0.65131813287734985</v>
       </c>
-      <c r="P51" s="14">
+      <c r="P51" s="8">
         <v>1.4253731966018677</v>
       </c>
-      <c r="Q51" s="14">
+      <c r="Q51" s="8">
         <v>4.536841869354248</v>
       </c>
-      <c r="R51" s="14">
+      <c r="R51" s="8">
         <v>1</v>
       </c>
-      <c r="S51" s="14">
+      <c r="S51" s="8">
         <v>2</v>
       </c>
-      <c r="T51" s="14">
+      <c r="T51" s="8">
         <v>1.25</v>
       </c>
-      <c r="U51" s="14">
+      <c r="U51" s="8">
         <v>1.75</v>
       </c>
-      <c r="V51" s="14">
+      <c r="V51" s="8">
         <v>1.5</v>
       </c>
       <c r="W51" t="s">
@@ -5979,20 +5979,20 @@
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A52" s="13">
+      <c r="A52" s="7">
         <v>9</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="7">
         <v>5</v>
       </c>
       <c r="C52" t="s">
+        <v>309</v>
+      </c>
+      <c r="D52" t="s">
         <v>310</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>311</v>
-      </c>
-      <c r="E52" t="s">
-        <v>312</v>
       </c>
       <c r="F52" t="s">
         <v>44</v>
@@ -6004,10 +6004,10 @@
         <v>28</v>
       </c>
       <c r="I52" t="s">
+        <v>302</v>
+      </c>
+      <c r="J52" t="s">
         <v>303</v>
-      </c>
-      <c r="J52" t="s">
-        <v>304</v>
       </c>
       <c r="K52" t="s">
         <v>31</v>
@@ -6015,34 +6015,34 @@
       <c r="L52" t="s">
         <v>103</v>
       </c>
-      <c r="M52" s="14">
+      <c r="M52" s="8">
         <v>86.860153198242188</v>
       </c>
-      <c r="N52" s="14">
+      <c r="N52" s="8">
         <v>1.1313984394073486</v>
       </c>
-      <c r="O52" s="14">
+      <c r="O52" s="8">
         <v>0.12301138043403625</v>
       </c>
-      <c r="P52" s="14">
+      <c r="P52" s="8">
         <v>1</v>
       </c>
-      <c r="Q52" s="14">
+      <c r="Q52" s="8">
         <v>1.7336796522140503</v>
       </c>
-      <c r="R52" s="14">
+      <c r="R52" s="8">
         <v>1</v>
       </c>
-      <c r="S52" s="14">
+      <c r="S52" s="8">
         <v>2</v>
       </c>
-      <c r="T52" s="14">
+      <c r="T52" s="8">
         <v>1.25</v>
       </c>
-      <c r="U52" s="14">
+      <c r="U52" s="8">
         <v>1.75</v>
       </c>
-      <c r="V52" s="14">
+      <c r="V52" s="8">
         <v>1.5</v>
       </c>
       <c r="W52" t="s">
@@ -6050,23 +6050,23 @@
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A53" s="13">
+      <c r="A53" s="7">
         <v>10</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="7">
         <v>1</v>
       </c>
       <c r="C53" t="s">
+        <v>312</v>
+      </c>
+      <c r="D53" t="s">
         <v>313</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>314</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>315</v>
-      </c>
-      <c r="F53" t="s">
-        <v>316</v>
       </c>
       <c r="G53" t="s">
         <v>69</v>
@@ -6078,66 +6078,66 @@
         <v>70</v>
       </c>
       <c r="J53" t="s">
+        <v>316</v>
+      </c>
+      <c r="K53" t="s">
         <v>317</v>
-      </c>
-      <c r="K53" t="s">
-        <v>318</v>
       </c>
       <c r="L53" t="s">
         <v>126</v>
       </c>
-      <c r="M53" s="14">
+      <c r="M53" s="8">
         <v>17.301513671875</v>
       </c>
-      <c r="N53" s="14">
+      <c r="N53" s="8">
         <v>0.46484801173210144</v>
       </c>
-      <c r="O53" s="14">
+      <c r="O53" s="8">
         <v>1.9503848627209663E-2</v>
       </c>
-      <c r="P53" s="14">
+      <c r="P53" s="8">
         <v>0.40810000896453857</v>
       </c>
-      <c r="Q53" s="14">
+      <c r="Q53" s="8">
         <v>0.51289999485015869</v>
       </c>
-      <c r="R53" s="14">
+      <c r="R53" s="8">
         <v>0.30000001192092896</v>
       </c>
-      <c r="S53" s="14">
+      <c r="S53" s="8">
         <v>0.49900001287460327</v>
       </c>
-      <c r="T53" s="14">
+      <c r="T53" s="8">
         <v>0.35</v>
       </c>
-      <c r="U53" s="14">
+      <c r="U53" s="8">
         <v>0.45</v>
       </c>
-      <c r="V53" s="14">
+      <c r="V53" s="8">
         <v>0.4</v>
       </c>
       <c r="W53" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A54" s="7">
+        <v>10</v>
+      </c>
+      <c r="B54" s="7">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A54" s="13">
-        <v>10</v>
-      </c>
-      <c r="B54" s="13">
-        <v>2</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>320</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>321</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>322</v>
-      </c>
-      <c r="F54" t="s">
-        <v>323</v>
       </c>
       <c r="G54" t="s">
         <v>69</v>
@@ -6149,66 +6149,66 @@
         <v>70</v>
       </c>
       <c r="J54" t="s">
+        <v>323</v>
+      </c>
+      <c r="K54" t="s">
         <v>324</v>
-      </c>
-      <c r="K54" t="s">
-        <v>325</v>
       </c>
       <c r="L54" t="s">
         <v>88</v>
       </c>
-      <c r="M54" s="14">
+      <c r="M54" s="8">
         <v>33.865715026855469</v>
       </c>
-      <c r="N54" s="14">
+      <c r="N54" s="8">
         <v>46.391998291015625</v>
       </c>
-      <c r="O54" s="14">
+      <c r="O54" s="8">
         <v>11.045302391052246</v>
       </c>
-      <c r="P54" s="14">
+      <c r="P54" s="8">
         <v>25.899999618530273</v>
       </c>
-      <c r="Q54" s="14">
+      <c r="Q54" s="8">
         <v>74.900001525878906</v>
       </c>
-      <c r="R54" s="14">
+      <c r="R54" s="8">
         <v>0</v>
       </c>
-      <c r="S54" s="14">
+      <c r="S54" s="8">
         <v>70</v>
       </c>
-      <c r="T54" s="14">
+      <c r="T54" s="8">
         <v>25</v>
       </c>
-      <c r="U54" s="14">
+      <c r="U54" s="8">
         <v>57.4373006820679</v>
       </c>
-      <c r="V54" s="14">
+      <c r="V54" s="8">
         <v>46.391998291015597</v>
       </c>
       <c r="W54" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A55" s="7">
+        <v>10</v>
+      </c>
+      <c r="B55" s="7">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A55" s="13">
-        <v>10</v>
-      </c>
-      <c r="B55" s="13">
-        <v>4</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>327</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>328</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>329</v>
-      </c>
-      <c r="F55" t="s">
-        <v>330</v>
       </c>
       <c r="G55" t="s">
         <v>27</v>
@@ -6217,66 +6217,66 @@
         <v>122</v>
       </c>
       <c r="I55" t="s">
+        <v>330</v>
+      </c>
+      <c r="J55" t="s">
         <v>331</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>332</v>
-      </c>
-      <c r="K55" t="s">
-        <v>333</v>
       </c>
       <c r="L55" t="s">
         <v>56</v>
       </c>
-      <c r="M55" s="14">
+      <c r="M55" s="8">
         <v>3.9547123908996582</v>
       </c>
-      <c r="N55" s="14">
+      <c r="N55" s="8">
         <v>3.954712301492691E-2</v>
       </c>
-      <c r="O55" s="14">
+      <c r="O55" s="8">
         <v>8.3863914012908936E-2</v>
       </c>
-      <c r="P55" s="14">
+      <c r="P55" s="8">
         <v>0</v>
       </c>
-      <c r="Q55" s="14">
+      <c r="Q55" s="8">
         <v>0.3604113757610321</v>
       </c>
-      <c r="R55" s="14">
+      <c r="R55" s="8">
         <v>1</v>
       </c>
-      <c r="S55" s="14">
+      <c r="S55" s="8">
         <v>0</v>
       </c>
-      <c r="T55" s="14">
+      <c r="T55" s="8">
         <v>0.8</v>
       </c>
-      <c r="U55" s="14">
+      <c r="U55" s="8">
         <v>0.4</v>
       </c>
-      <c r="V55" s="14">
+      <c r="V55" s="8">
         <v>0.6</v>
       </c>
       <c r="W55" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A56" s="7">
+        <v>10</v>
+      </c>
+      <c r="B56" s="7">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A56" s="13">
-        <v>10</v>
-      </c>
-      <c r="B56" s="13">
-        <v>5</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>335</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>336</v>
-      </c>
-      <c r="E56" t="s">
-        <v>337</v>
       </c>
       <c r="F56" t="s">
         <v>114</v>
@@ -6291,63 +6291,63 @@
         <v>70</v>
       </c>
       <c r="J56" t="s">
+        <v>337</v>
+      </c>
+      <c r="K56" t="s">
         <v>338</v>
-      </c>
-      <c r="K56" t="s">
-        <v>339</v>
       </c>
       <c r="L56" t="s">
         <v>88</v>
       </c>
-      <c r="M56" s="14">
+      <c r="M56" s="8">
         <v>62.897758483886719</v>
       </c>
-      <c r="N56" s="14">
+      <c r="N56" s="8">
         <v>0.30304068326950073</v>
       </c>
-      <c r="O56" s="14">
+      <c r="O56" s="8">
         <v>0.19256900250911713</v>
       </c>
-      <c r="P56" s="14">
+      <c r="P56" s="8">
         <v>0</v>
       </c>
-      <c r="Q56" s="14">
+      <c r="Q56" s="8">
         <v>0.95921421051025391</v>
       </c>
-      <c r="R56" s="14">
+      <c r="R56" s="8">
         <v>0</v>
       </c>
-      <c r="S56" s="14">
+      <c r="S56" s="8">
         <v>0.80882406234741211</v>
       </c>
-      <c r="T56" s="14">
+      <c r="T56" s="8">
         <v>0.1082685738802</v>
       </c>
-      <c r="U56" s="14">
+      <c r="U56" s="8">
         <v>0.49729906022550002</v>
       </c>
-      <c r="V56" s="14">
+      <c r="V56" s="8">
         <v>0.3027838170528</v>
       </c>
       <c r="W56" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A57" s="7">
+        <v>10</v>
+      </c>
+      <c r="B57" s="7">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A57" s="13">
-        <v>10</v>
-      </c>
-      <c r="B57" s="13">
-        <v>7</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>341</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>342</v>
-      </c>
-      <c r="E57" t="s">
-        <v>343</v>
       </c>
       <c r="F57" t="s">
         <v>26</v>
@@ -6359,66 +6359,66 @@
         <v>122</v>
       </c>
       <c r="I57" t="s">
+        <v>343</v>
+      </c>
+      <c r="J57" t="s">
         <v>344</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>345</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>346</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" s="8">
+        <v>36.437843322753906</v>
+      </c>
+      <c r="N57" s="8">
+        <v>0.38956618309020996</v>
+      </c>
+      <c r="O57" s="8">
+        <v>0.43709143996238708</v>
+      </c>
+      <c r="P57" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="8">
+        <v>1.3809523582458496</v>
+      </c>
+      <c r="R57" s="8">
+        <v>1</v>
+      </c>
+      <c r="S57" s="8">
+        <v>0</v>
+      </c>
+      <c r="T57" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="U57" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="V57" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="W57" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A58" s="7">
+        <v>10</v>
+      </c>
+      <c r="B58" s="7">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
         <v>347</v>
       </c>
-      <c r="M57" s="14">
-        <v>36.437843322753906</v>
-      </c>
-      <c r="N57" s="14">
-        <v>0.38956618309020996</v>
-      </c>
-      <c r="O57" s="14">
-        <v>0.43709143996238708</v>
-      </c>
-      <c r="P57" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="14">
-        <v>1.3809523582458496</v>
-      </c>
-      <c r="R57" s="14">
-        <v>1</v>
-      </c>
-      <c r="S57" s="14">
-        <v>0</v>
-      </c>
-      <c r="T57" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="U57" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="V57" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="W57" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A58" s="13">
-        <v>10</v>
-      </c>
-      <c r="B58" s="13">
-        <v>8</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>348</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>349</v>
-      </c>
-      <c r="E58" t="s">
-        <v>350</v>
       </c>
       <c r="F58" t="s">
         <v>26</v>
@@ -6430,66 +6430,66 @@
         <v>28</v>
       </c>
       <c r="I58" t="s">
+        <v>350</v>
+      </c>
+      <c r="J58" t="s">
         <v>351</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>352</v>
-      </c>
-      <c r="K58" t="s">
-        <v>353</v>
       </c>
       <c r="L58" t="s">
         <v>88</v>
       </c>
-      <c r="M58" s="14">
+      <c r="M58" s="8">
         <v>9.6405229568481445</v>
       </c>
-      <c r="N58" s="14">
+      <c r="N58" s="8">
         <v>26.581567764282227</v>
       </c>
-      <c r="O58" s="14">
+      <c r="O58" s="8">
         <v>13.094347953796387</v>
       </c>
-      <c r="P58" s="14">
+      <c r="P58" s="8">
         <v>5.5999999046325684</v>
       </c>
-      <c r="Q58" s="14">
+      <c r="Q58" s="8">
         <v>62.439998626708984</v>
       </c>
-      <c r="R58" s="14">
+      <c r="R58" s="8">
         <v>0</v>
       </c>
-      <c r="S58" s="14">
+      <c r="S58" s="8">
         <v>18</v>
       </c>
-      <c r="T58" s="14">
+      <c r="T58" s="8">
         <v>4</v>
       </c>
-      <c r="U58" s="14">
+      <c r="U58" s="8">
         <v>12</v>
       </c>
-      <c r="V58" s="14">
+      <c r="V58" s="8">
         <v>8</v>
       </c>
       <c r="W58" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
+        <v>10</v>
+      </c>
+      <c r="B59" s="7">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A59" s="13">
-        <v>10</v>
-      </c>
-      <c r="B59" s="13">
-        <v>9</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>355</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>356</v>
-      </c>
-      <c r="E59" t="s">
-        <v>357</v>
       </c>
       <c r="F59" t="s">
         <v>44</v>
@@ -6501,45 +6501,45 @@
         <v>28</v>
       </c>
       <c r="I59" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J59" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L59" t="s">
         <v>88</v>
       </c>
-      <c r="M59" s="14">
+      <c r="M59" s="8">
         <v>1.1519079208374023</v>
       </c>
-      <c r="N59" s="14">
+      <c r="N59" s="8">
         <v>6.2646217346191406</v>
       </c>
-      <c r="O59" s="14">
+      <c r="O59" s="8">
         <v>4.5297384262084961</v>
       </c>
-      <c r="P59" s="14">
+      <c r="P59" s="8">
         <v>1.4125269651412964</v>
       </c>
-      <c r="Q59" s="14">
+      <c r="Q59" s="8">
         <v>28.020000457763672</v>
       </c>
-      <c r="R59" s="14">
+      <c r="R59" s="8">
         <v>1</v>
       </c>
-      <c r="S59" s="14">
+      <c r="S59" s="8">
         <v>2</v>
       </c>
-      <c r="T59" s="14">
+      <c r="T59" s="8">
         <v>1.25</v>
       </c>
-      <c r="U59" s="14">
+      <c r="U59" s="8">
         <v>1.75</v>
       </c>
-      <c r="V59" s="14">
+      <c r="V59" s="8">
         <v>1.5</v>
       </c>
       <c r="W59" t="s">
@@ -6547,23 +6547,23 @@
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A60" s="13">
+      <c r="A60" s="7">
         <v>11</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="7">
         <v>1</v>
       </c>
       <c r="C60" t="s">
+        <v>358</v>
+      </c>
+      <c r="D60" t="s">
         <v>359</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>360</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>361</v>
-      </c>
-      <c r="F60" t="s">
-        <v>362</v>
       </c>
       <c r="G60" t="s">
         <v>69</v>
@@ -6575,63 +6575,63 @@
         <v>70</v>
       </c>
       <c r="J60" t="s">
+        <v>362</v>
+      </c>
+      <c r="K60" t="s">
         <v>363</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>364</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" s="8">
+        <v>65.3280029296875</v>
+      </c>
+      <c r="N60" s="8">
+        <v>7.3862743377685547</v>
+      </c>
+      <c r="O60" s="8">
+        <v>1.4245027303695679</v>
+      </c>
+      <c r="P60" s="8">
+        <v>4.4000000953674316</v>
+      </c>
+      <c r="Q60" s="8">
+        <v>12.800000190734863</v>
+      </c>
+      <c r="R60" s="8">
+        <v>4.940000057220459</v>
+      </c>
+      <c r="S60" s="8">
+        <v>12</v>
+      </c>
+      <c r="T60" s="8">
+        <v>6</v>
+      </c>
+      <c r="U60" s="8">
+        <v>10</v>
+      </c>
+      <c r="V60" s="8">
+        <v>8</v>
+      </c>
+      <c r="W60" t="s">
         <v>365</v>
       </c>
-      <c r="M60" s="14">
-        <v>65.3280029296875</v>
-      </c>
-      <c r="N60" s="14">
-        <v>7.3862743377685547</v>
-      </c>
-      <c r="O60" s="14">
-        <v>1.4245027303695679</v>
-      </c>
-      <c r="P60" s="14">
-        <v>4.4000000953674316</v>
-      </c>
-      <c r="Q60" s="14">
-        <v>12.800000190734863</v>
-      </c>
-      <c r="R60" s="14">
-        <v>4.940000057220459</v>
-      </c>
-      <c r="S60" s="14">
-        <v>12</v>
-      </c>
-      <c r="T60" s="14">
-        <v>6</v>
-      </c>
-      <c r="U60" s="14">
-        <v>10</v>
-      </c>
-      <c r="V60" s="14">
-        <v>8</v>
-      </c>
-      <c r="W60" t="s">
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A61" s="7">
+        <v>11</v>
+      </c>
+      <c r="B61" s="7">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A61" s="13">
-        <v>11</v>
-      </c>
-      <c r="B61" s="13">
-        <v>2</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>367</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>368</v>
-      </c>
-      <c r="E61" t="s">
-        <v>369</v>
       </c>
       <c r="F61" t="s">
         <v>26</v>
@@ -6643,69 +6643,69 @@
         <v>28</v>
       </c>
       <c r="I61" t="s">
+        <v>369</v>
+      </c>
+      <c r="J61" t="s">
         <v>370</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>371</v>
-      </c>
-      <c r="K61" t="s">
-        <v>372</v>
       </c>
       <c r="L61" t="s">
         <v>32</v>
       </c>
-      <c r="M61" s="14">
+      <c r="M61" s="8">
         <v>1.760442852973938</v>
       </c>
-      <c r="N61" s="14">
+      <c r="N61" s="8">
         <v>61.844997406005859</v>
       </c>
-      <c r="O61" s="14">
+      <c r="O61" s="8">
         <v>10.351591110229492</v>
       </c>
-      <c r="P61" s="14">
+      <c r="P61" s="8">
         <v>41.509048461914062</v>
       </c>
-      <c r="Q61" s="14">
+      <c r="Q61" s="8">
         <v>87.388847351074219</v>
       </c>
-      <c r="R61" s="14">
+      <c r="R61" s="8">
         <v>0</v>
       </c>
-      <c r="S61" s="14">
+      <c r="S61" s="8">
         <v>55.599998474121094</v>
       </c>
-      <c r="T61" s="14">
+      <c r="T61" s="8">
         <v>20</v>
       </c>
-      <c r="U61" s="14">
+      <c r="U61" s="8">
         <v>50</v>
       </c>
-      <c r="V61" s="14">
+      <c r="V61" s="8">
         <v>40</v>
       </c>
       <c r="W61" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A62" s="7">
+        <v>11</v>
+      </c>
+      <c r="B62" s="7">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A62" s="13">
-        <v>11</v>
-      </c>
-      <c r="B62" s="13">
-        <v>3</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>374</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>375</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>376</v>
-      </c>
-      <c r="F62" t="s">
-        <v>377</v>
       </c>
       <c r="G62" t="s">
         <v>69</v>
@@ -6717,63 +6717,63 @@
         <v>70</v>
       </c>
       <c r="J62" t="s">
+        <v>377</v>
+      </c>
+      <c r="K62" t="s">
         <v>378</v>
-      </c>
-      <c r="K62" t="s">
-        <v>379</v>
       </c>
       <c r="L62" t="s">
         <v>32</v>
       </c>
-      <c r="M62" s="14">
+      <c r="M62" s="8">
         <v>22.933731079101562</v>
       </c>
-      <c r="N62" s="14">
+      <c r="N62" s="8">
         <v>39</v>
       </c>
-      <c r="O62" s="14">
+      <c r="O62" s="8">
         <v>9.5540571212768555</v>
       </c>
-      <c r="P62" s="14">
+      <c r="P62" s="8">
         <v>15</v>
       </c>
-      <c r="Q62" s="14">
+      <c r="Q62" s="8">
         <v>61</v>
       </c>
-      <c r="R62" s="14">
+      <c r="R62" s="8">
         <v>100</v>
       </c>
-      <c r="S62" s="14">
+      <c r="S62" s="8">
         <v>21</v>
       </c>
-      <c r="T62" s="14">
+      <c r="T62" s="8">
         <v>70</v>
       </c>
-      <c r="U62" s="14">
+      <c r="U62" s="8">
         <v>40</v>
       </c>
-      <c r="V62" s="14">
+      <c r="V62" s="8">
         <v>55</v>
       </c>
       <c r="W62" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A63" s="7">
+        <v>11</v>
+      </c>
+      <c r="B63" s="7">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A63" s="13">
-        <v>11</v>
-      </c>
-      <c r="B63" s="13">
-        <v>5</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>381</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>382</v>
-      </c>
-      <c r="E63" t="s">
-        <v>383</v>
       </c>
       <c r="F63" t="s">
         <v>26</v>
@@ -6788,66 +6788,66 @@
         <v>70</v>
       </c>
       <c r="J63" t="s">
+        <v>383</v>
+      </c>
+      <c r="K63" t="s">
         <v>384</v>
-      </c>
-      <c r="K63" t="s">
-        <v>385</v>
       </c>
       <c r="L63" t="s">
         <v>103</v>
       </c>
-      <c r="M63" s="14">
+      <c r="M63" s="8">
         <v>72.745094299316406</v>
       </c>
-      <c r="N63" s="14">
+      <c r="N63" s="8">
         <v>2.7254900932312012</v>
       </c>
-      <c r="O63" s="14">
+      <c r="O63" s="8">
         <v>1.6047234535217285</v>
       </c>
-      <c r="P63" s="14">
+      <c r="P63" s="8">
         <v>1.2999999523162842</v>
       </c>
-      <c r="Q63" s="14">
+      <c r="Q63" s="8">
         <v>9.1000003814697266</v>
       </c>
-      <c r="R63" s="14">
+      <c r="R63" s="8">
         <v>0</v>
       </c>
-      <c r="S63" s="14">
+      <c r="S63" s="8">
         <v>10</v>
       </c>
-      <c r="T63" s="14">
+      <c r="T63" s="8">
         <v>2</v>
       </c>
-      <c r="U63" s="14">
+      <c r="U63" s="8">
         <v>5</v>
       </c>
-      <c r="V63" s="14">
+      <c r="V63" s="8">
         <v>3</v>
       </c>
       <c r="W63" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A64" s="7">
+        <v>11</v>
+      </c>
+      <c r="B64" s="7">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A64" s="13">
-        <v>11</v>
-      </c>
-      <c r="B64" s="13">
-        <v>7</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>387</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>388</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>389</v>
-      </c>
-      <c r="F64" t="s">
-        <v>390</v>
       </c>
       <c r="G64" t="s">
         <v>45</v>
@@ -6856,7 +6856,7 @@
         <v>28</v>
       </c>
       <c r="I64" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J64" t="s">
         <v>166</v>
@@ -6865,36 +6865,36 @@
         <v>167</v>
       </c>
       <c r="L64" t="s">
-        <v>208</v>
-      </c>
-      <c r="M64" s="14">
+        <v>207</v>
+      </c>
+      <c r="M64" s="8">
         <v>90.724899291992188</v>
       </c>
-      <c r="N64" s="14">
+      <c r="N64" s="8">
         <v>1.0927510261535645</v>
       </c>
-      <c r="O64" s="14">
+      <c r="O64" s="8">
         <v>8.2172557711601257E-2</v>
       </c>
-      <c r="P64" s="14">
+      <c r="P64" s="8">
         <v>1</v>
       </c>
-      <c r="Q64" s="14">
+      <c r="Q64" s="8">
         <v>1.4135630130767822</v>
       </c>
-      <c r="R64" s="14">
+      <c r="R64" s="8">
         <v>1</v>
       </c>
-      <c r="S64" s="14">
+      <c r="S64" s="8">
         <v>2</v>
       </c>
-      <c r="T64" s="14">
+      <c r="T64" s="8">
         <v>1.25</v>
       </c>
-      <c r="U64" s="14">
+      <c r="U64" s="8">
         <v>1.75</v>
       </c>
-      <c r="V64" s="14">
+      <c r="V64" s="8">
         <v>1.5</v>
       </c>
       <c r="W64" t="s">
@@ -6902,23 +6902,23 @@
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A65" s="13">
+      <c r="A65" s="7">
         <v>12</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65" s="7">
         <v>6</v>
       </c>
       <c r="C65" t="s">
+        <v>391</v>
+      </c>
+      <c r="D65" t="s">
         <v>392</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>393</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>394</v>
-      </c>
-      <c r="F65" t="s">
-        <v>395</v>
       </c>
       <c r="G65" t="s">
         <v>69</v>
@@ -6930,63 +6930,63 @@
         <v>70</v>
       </c>
       <c r="J65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K65" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L65" t="s">
         <v>32</v>
       </c>
-      <c r="M65" s="14">
+      <c r="M65" s="8">
         <v>62.676658630371094</v>
       </c>
-      <c r="N65" s="14">
+      <c r="N65" s="8">
         <v>4861112.5</v>
       </c>
-      <c r="O65" s="14">
+      <c r="O65" s="8">
         <v>6304334.5</v>
       </c>
-      <c r="P65" s="14">
+      <c r="P65" s="8">
         <v>13368.6435546875</v>
       </c>
-      <c r="Q65" s="14">
+      <c r="Q65" s="8">
         <v>29491512</v>
       </c>
-      <c r="R65" s="14">
+      <c r="R65" s="8">
         <v>43329.43359375</v>
       </c>
-      <c r="S65" s="14">
+      <c r="S65" s="8">
         <v>10000000</v>
       </c>
-      <c r="T65" s="14">
+      <c r="T65" s="8">
         <v>500000</v>
       </c>
-      <c r="U65" s="14">
+      <c r="U65" s="8">
         <v>5000000</v>
       </c>
-      <c r="V65" s="14">
+      <c r="V65" s="8">
         <v>1000000</v>
       </c>
       <c r="W65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A66" s="13">
+      <c r="A66" s="7">
         <v>12</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66" s="7">
         <v>7</v>
       </c>
       <c r="C66" t="s">
+        <v>395</v>
+      </c>
+      <c r="D66" t="s">
         <v>396</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>397</v>
-      </c>
-      <c r="E66" t="s">
-        <v>398</v>
       </c>
       <c r="F66" t="s">
         <v>44</v>
@@ -6998,45 +6998,45 @@
         <v>28</v>
       </c>
       <c r="I66" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J66" t="s">
+        <v>398</v>
+      </c>
+      <c r="K66" t="s">
         <v>399</v>
-      </c>
-      <c r="K66" t="s">
-        <v>400</v>
       </c>
       <c r="L66" t="s">
         <v>88</v>
       </c>
-      <c r="M66" s="14">
+      <c r="M66" s="8">
         <v>64.915611267089844</v>
       </c>
-      <c r="N66" s="14">
+      <c r="N66" s="8">
         <v>1.3448506593704224</v>
       </c>
-      <c r="O66" s="14">
+      <c r="O66" s="8">
         <v>0.30200004577636719</v>
       </c>
-      <c r="P66" s="14">
+      <c r="P66" s="8">
         <v>0.78320461511611938</v>
       </c>
-      <c r="Q66" s="14">
+      <c r="Q66" s="8">
         <v>2.1064743995666504</v>
       </c>
-      <c r="R66" s="14">
+      <c r="R66" s="8">
         <v>1</v>
       </c>
-      <c r="S66" s="14">
+      <c r="S66" s="8">
         <v>2</v>
       </c>
-      <c r="T66" s="14">
+      <c r="T66" s="8">
         <v>1.25</v>
       </c>
-      <c r="U66" s="14">
+      <c r="U66" s="8">
         <v>1.75</v>
       </c>
-      <c r="V66" s="14">
+      <c r="V66" s="8">
         <v>1.5</v>
       </c>
       <c r="W66" t="s">
@@ -7044,23 +7044,23 @@
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A67" s="13">
+      <c r="A67" s="7">
         <v>12</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B67" s="7">
         <v>9</v>
       </c>
       <c r="C67" t="s">
+        <v>400</v>
+      </c>
+      <c r="D67" t="s">
         <v>401</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>402</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>403</v>
-      </c>
-      <c r="F67" t="s">
-        <v>404</v>
       </c>
       <c r="G67" t="s">
         <v>69</v>
@@ -7072,66 +7072,66 @@
         <v>70</v>
       </c>
       <c r="J67" t="s">
+        <v>404</v>
+      </c>
+      <c r="K67" t="s">
         <v>405</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>406</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" s="8">
+        <v>68.456779479980469</v>
+      </c>
+      <c r="N67" s="8">
+        <v>18.232721328735352</v>
+      </c>
+      <c r="O67" s="8">
+        <v>18.574741363525391</v>
+      </c>
+      <c r="P67" s="8">
+        <v>1.1022187471389771</v>
+      </c>
+      <c r="Q67" s="8">
+        <v>88.290237426757812</v>
+      </c>
+      <c r="R67" s="8">
+        <v>1.6052000522613525</v>
+      </c>
+      <c r="S67" s="8">
+        <v>50</v>
+      </c>
+      <c r="T67" s="8">
+        <v>6</v>
+      </c>
+      <c r="U67" s="8">
+        <v>18</v>
+      </c>
+      <c r="V67" s="8">
+        <v>11</v>
+      </c>
+      <c r="W67" t="s">
         <v>407</v>
       </c>
-      <c r="M67" s="14">
-        <v>68.456779479980469</v>
-      </c>
-      <c r="N67" s="14">
-        <v>18.232721328735352</v>
-      </c>
-      <c r="O67" s="14">
-        <v>18.574741363525391</v>
-      </c>
-      <c r="P67" s="14">
-        <v>1.1022187471389771</v>
-      </c>
-      <c r="Q67" s="14">
-        <v>88.290237426757812</v>
-      </c>
-      <c r="R67" s="14">
-        <v>1.6052000522613525</v>
-      </c>
-      <c r="S67" s="14">
-        <v>50</v>
-      </c>
-      <c r="T67" s="14">
-        <v>6</v>
-      </c>
-      <c r="U67" s="14">
-        <v>18</v>
-      </c>
-      <c r="V67" s="14">
-        <v>11</v>
-      </c>
-      <c r="W67" t="s">
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A68" s="7">
+        <v>13</v>
+      </c>
+      <c r="B68" s="7">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A68" s="13">
-        <v>13</v>
-      </c>
-      <c r="B68" s="13">
-        <v>2</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>409</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>410</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>411</v>
-      </c>
-      <c r="F68" t="s">
-        <v>412</v>
       </c>
       <c r="G68" t="s">
         <v>27</v>
@@ -7140,10 +7140,10 @@
         <v>28</v>
       </c>
       <c r="I68" t="s">
+        <v>412</v>
+      </c>
+      <c r="J68" t="s">
         <v>413</v>
-      </c>
-      <c r="J68" t="s">
-        <v>414</v>
       </c>
       <c r="K68" t="s">
         <v>125</v>
@@ -7151,58 +7151,58 @@
       <c r="L68" t="s">
         <v>88</v>
       </c>
-      <c r="M68" s="14">
+      <c r="M68" s="8">
         <v>5.0691447257995605</v>
       </c>
-      <c r="N68" s="14">
+      <c r="N68" s="8">
         <v>49.541446685791016</v>
       </c>
-      <c r="O68" s="14">
+      <c r="O68" s="8">
         <v>24.614679336547852</v>
       </c>
-      <c r="P68" s="14">
+      <c r="P68" s="8">
         <v>3.5840001106262207</v>
       </c>
-      <c r="Q68" s="14">
+      <c r="Q68" s="8">
         <v>93.7760009765625</v>
       </c>
-      <c r="R68" s="14">
+      <c r="R68" s="8">
         <v>0</v>
       </c>
-      <c r="S68" s="14">
+      <c r="S68" s="8">
         <v>18.770000457763672</v>
       </c>
-      <c r="T68" s="14">
+      <c r="T68" s="8">
         <v>25</v>
       </c>
-      <c r="U68" s="14">
+      <c r="U68" s="8">
         <v>75</v>
       </c>
-      <c r="V68" s="14">
+      <c r="V68" s="8">
         <v>50</v>
       </c>
       <c r="W68" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A69" s="7">
+        <v>13</v>
+      </c>
+      <c r="B69" s="7">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A69" s="13">
-        <v>13</v>
-      </c>
-      <c r="B69" s="13">
-        <v>3</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>416</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>417</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>418</v>
-      </c>
-      <c r="F69" t="s">
-        <v>419</v>
       </c>
       <c r="G69" t="s">
         <v>69</v>
@@ -7214,63 +7214,63 @@
         <v>70</v>
       </c>
       <c r="J69" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K69" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L69" t="s">
         <v>88</v>
       </c>
-      <c r="M69" s="14">
+      <c r="M69" s="8">
         <v>25.717161178588867</v>
       </c>
-      <c r="N69" s="14">
+      <c r="N69" s="8">
         <v>20.637115478515625</v>
       </c>
-      <c r="O69" s="14">
+      <c r="O69" s="8">
         <v>17.357686996459961</v>
       </c>
-      <c r="P69" s="14">
+      <c r="P69" s="8">
         <v>8.0512418746948242</v>
       </c>
-      <c r="Q69" s="14">
+      <c r="Q69" s="8">
         <v>105.38024139404297</v>
       </c>
-      <c r="R69" s="14">
+      <c r="R69" s="8">
         <v>1.5</v>
       </c>
-      <c r="S69" s="14">
+      <c r="S69" s="8">
         <v>20</v>
       </c>
-      <c r="T69" s="14">
+      <c r="T69" s="8">
         <v>5</v>
       </c>
-      <c r="U69" s="14">
+      <c r="U69" s="8">
         <v>10</v>
       </c>
-      <c r="V69" s="14">
+      <c r="V69" s="8">
         <v>7.5</v>
       </c>
       <c r="W69" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A70" s="7">
+        <v>13</v>
+      </c>
+      <c r="B70" s="7">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A70" s="13">
-        <v>13</v>
-      </c>
-      <c r="B70" s="13">
-        <v>4</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>422</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>423</v>
-      </c>
-      <c r="E70" t="s">
-        <v>424</v>
       </c>
       <c r="F70" t="s">
         <v>44</v>
@@ -7282,10 +7282,10 @@
         <v>28</v>
       </c>
       <c r="I70" t="s">
+        <v>412</v>
+      </c>
+      <c r="J70" t="s">
         <v>413</v>
-      </c>
-      <c r="J70" t="s">
-        <v>414</v>
       </c>
       <c r="K70" t="s">
         <v>125</v>
@@ -7293,34 +7293,34 @@
       <c r="L70" t="s">
         <v>88</v>
       </c>
-      <c r="M70" s="14">
+      <c r="M70" s="8">
         <v>60.689842224121094</v>
       </c>
-      <c r="N70" s="14">
+      <c r="N70" s="8">
         <v>1.3940184116363525</v>
       </c>
-      <c r="O70" s="14">
+      <c r="O70" s="8">
         <v>0.26543596386909485</v>
       </c>
-      <c r="P70" s="14">
+      <c r="P70" s="8">
         <v>1.0104296207427979</v>
       </c>
-      <c r="Q70" s="14">
+      <c r="Q70" s="8">
         <v>2.0467588901519775</v>
       </c>
-      <c r="R70" s="14">
+      <c r="R70" s="8">
         <v>1</v>
       </c>
-      <c r="S70" s="14">
+      <c r="S70" s="8">
         <v>2</v>
       </c>
-      <c r="T70" s="14">
+      <c r="T70" s="8">
         <v>1.25</v>
       </c>
-      <c r="U70" s="14">
+      <c r="U70" s="8">
         <v>1.75</v>
       </c>
-      <c r="V70" s="14">
+      <c r="V70" s="8">
         <v>1.5</v>
       </c>
       <c r="W70" t="s">
@@ -7328,20 +7328,20 @@
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A71" s="13">
+      <c r="A71" s="7">
         <v>13</v>
       </c>
-      <c r="B71" s="13">
+      <c r="B71" s="7">
         <v>5</v>
       </c>
       <c r="C71" t="s">
+        <v>424</v>
+      </c>
+      <c r="D71" t="s">
         <v>425</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>426</v>
-      </c>
-      <c r="E71" t="s">
-        <v>427</v>
       </c>
       <c r="F71" t="s">
         <v>26</v>
@@ -7356,63 +7356,63 @@
         <v>70</v>
       </c>
       <c r="J71" t="s">
+        <v>427</v>
+      </c>
+      <c r="K71" t="s">
         <v>428</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
+        <v>346</v>
+      </c>
+      <c r="M71" s="8">
+        <v>39.698715209960938</v>
+      </c>
+      <c r="N71" s="8">
+        <v>39.698715209960938</v>
+      </c>
+      <c r="O71" s="8">
+        <v>39.928047180175781</v>
+      </c>
+      <c r="P71" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="8">
+        <v>100</v>
+      </c>
+      <c r="R71" s="8">
+        <v>100</v>
+      </c>
+      <c r="S71" s="8">
+        <v>0</v>
+      </c>
+      <c r="T71" s="8">
+        <v>75</v>
+      </c>
+      <c r="U71" s="8">
+        <v>25</v>
+      </c>
+      <c r="V71" s="8">
+        <v>50</v>
+      </c>
+      <c r="W71" t="s">
         <v>429</v>
       </c>
-      <c r="L71" t="s">
-        <v>347</v>
-      </c>
-      <c r="M71" s="14">
-        <v>39.698715209960938</v>
-      </c>
-      <c r="N71" s="14">
-        <v>39.698715209960938</v>
-      </c>
-      <c r="O71" s="14">
-        <v>39.928047180175781</v>
-      </c>
-      <c r="P71" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="14">
-        <v>100</v>
-      </c>
-      <c r="R71" s="14">
-        <v>100</v>
-      </c>
-      <c r="S71" s="14">
-        <v>0</v>
-      </c>
-      <c r="T71" s="14">
-        <v>75</v>
-      </c>
-      <c r="U71" s="14">
-        <v>25</v>
-      </c>
-      <c r="V71" s="14">
-        <v>50</v>
-      </c>
-      <c r="W71" t="s">
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A72" s="7">
+        <v>13</v>
+      </c>
+      <c r="B72" s="7">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A72" s="13">
-        <v>13</v>
-      </c>
-      <c r="B72" s="13">
-        <v>6</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>431</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>432</v>
-      </c>
-      <c r="E72" t="s">
-        <v>433</v>
       </c>
       <c r="F72" t="s">
         <v>114</v>
@@ -7427,63 +7427,63 @@
         <v>70</v>
       </c>
       <c r="J72" t="s">
+        <v>433</v>
+      </c>
+      <c r="K72" t="s">
         <v>434</v>
-      </c>
-      <c r="K72" t="s">
-        <v>435</v>
       </c>
       <c r="L72" t="s">
         <v>56</v>
       </c>
-      <c r="M72" s="14">
+      <c r="M72" s="8">
         <v>65.465049743652344</v>
       </c>
-      <c r="N72" s="14">
+      <c r="N72" s="8">
         <v>0.52685713768005371</v>
       </c>
-      <c r="O72" s="14">
+      <c r="O72" s="8">
         <v>0.67011672258377075</v>
       </c>
-      <c r="P72" s="14">
+      <c r="P72" s="8">
         <v>1.8879305571317673E-2</v>
       </c>
-      <c r="Q72" s="14">
+      <c r="Q72" s="8">
         <v>3.6896908283233643</v>
       </c>
-      <c r="R72" s="14">
+      <c r="R72" s="8">
         <v>0</v>
       </c>
-      <c r="S72" s="14">
+      <c r="S72" s="8">
         <v>1.25</v>
       </c>
-      <c r="T72" s="14">
+      <c r="T72" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="U72" s="14">
+      <c r="U72" s="8">
         <v>0.9</v>
       </c>
-      <c r="V72" s="14">
+      <c r="V72" s="8">
         <v>0.57999999999999996</v>
       </c>
       <c r="W72" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A73" s="7">
+        <v>13</v>
+      </c>
+      <c r="B73" s="7">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A73" s="13">
-        <v>13</v>
-      </c>
-      <c r="B73" s="13">
-        <v>7</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>437</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>438</v>
-      </c>
-      <c r="E73" t="s">
-        <v>439</v>
       </c>
       <c r="F73" t="s">
         <v>26</v>
@@ -7498,66 +7498,66 @@
         <v>70</v>
       </c>
       <c r="J73" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K73" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L73" t="s">
         <v>56</v>
       </c>
-      <c r="M73" s="14">
+      <c r="M73" s="8">
         <v>62.443862915039062</v>
       </c>
-      <c r="N73" s="14">
+      <c r="N73" s="8">
         <v>86.498039245605469</v>
       </c>
-      <c r="O73" s="14">
+      <c r="O73" s="8">
         <v>11.606696128845215</v>
       </c>
-      <c r="P73" s="14">
+      <c r="P73" s="8">
         <v>61.299999237060547</v>
       </c>
-      <c r="Q73" s="14">
+      <c r="Q73" s="8">
         <v>100</v>
       </c>
-      <c r="R73" s="14">
+      <c r="R73" s="8">
         <v>100</v>
       </c>
-      <c r="S73" s="14">
+      <c r="S73" s="8">
         <v>64.199996948242188</v>
       </c>
-      <c r="T73" s="14">
+      <c r="T73" s="8">
         <v>90</v>
       </c>
-      <c r="U73" s="14">
+      <c r="U73" s="8">
         <v>74.765606880188002</v>
       </c>
-      <c r="V73" s="14">
+      <c r="V73" s="8">
         <v>86.5</v>
       </c>
       <c r="W73" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A74" s="13">
+      <c r="A74" s="7">
         <v>15</v>
       </c>
-      <c r="B74" s="13">
+      <c r="B74" s="7">
         <v>1</v>
       </c>
       <c r="C74" t="s">
+        <v>440</v>
+      </c>
+      <c r="D74" t="s">
         <v>441</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>442</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>443</v>
-      </c>
-      <c r="F74" t="s">
-        <v>444</v>
       </c>
       <c r="G74" t="s">
         <v>69</v>
@@ -7569,63 +7569,63 @@
         <v>70</v>
       </c>
       <c r="J74" t="s">
+        <v>444</v>
+      </c>
+      <c r="K74" t="s">
         <v>445</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>446</v>
       </c>
-      <c r="L74" t="s">
+      <c r="M74" s="8">
+        <v>44.82806396484375</v>
+      </c>
+      <c r="N74" s="8">
+        <v>107.76620483398438</v>
+      </c>
+      <c r="O74" s="8">
+        <v>130.56346130371094</v>
+      </c>
+      <c r="P74" s="8">
+        <v>1.2135447263717651</v>
+      </c>
+      <c r="Q74" s="8">
+        <v>523.076904296875</v>
+      </c>
+      <c r="R74" s="8">
+        <v>10.592259407043457</v>
+      </c>
+      <c r="S74" s="8">
+        <v>100</v>
+      </c>
+      <c r="T74" s="8">
+        <v>25</v>
+      </c>
+      <c r="U74" s="8">
+        <v>100</v>
+      </c>
+      <c r="V74" s="8">
+        <v>50</v>
+      </c>
+      <c r="W74" t="s">
         <v>447</v>
       </c>
-      <c r="M74" s="14">
-        <v>44.82806396484375</v>
-      </c>
-      <c r="N74" s="14">
-        <v>107.76620483398438</v>
-      </c>
-      <c r="O74" s="14">
-        <v>130.56346130371094</v>
-      </c>
-      <c r="P74" s="14">
-        <v>1.2135447263717651</v>
-      </c>
-      <c r="Q74" s="14">
-        <v>523.076904296875</v>
-      </c>
-      <c r="R74" s="14">
-        <v>10.592259407043457</v>
-      </c>
-      <c r="S74" s="14">
-        <v>100</v>
-      </c>
-      <c r="T74" s="14">
-        <v>25</v>
-      </c>
-      <c r="U74" s="14">
-        <v>100</v>
-      </c>
-      <c r="V74" s="14">
-        <v>50</v>
-      </c>
-      <c r="W74" t="s">
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A75" s="7">
+        <v>15</v>
+      </c>
+      <c r="B75" s="7">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A75" s="13">
-        <v>15</v>
-      </c>
-      <c r="B75" s="13">
-        <v>2</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>449</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>450</v>
-      </c>
-      <c r="E75" t="s">
-        <v>451</v>
       </c>
       <c r="F75" t="s">
         <v>26</v>
@@ -7640,66 +7640,66 @@
         <v>70</v>
       </c>
       <c r="J75" t="s">
+        <v>451</v>
+      </c>
+      <c r="K75" t="s">
         <v>452</v>
-      </c>
-      <c r="K75" t="s">
-        <v>453</v>
       </c>
       <c r="L75" t="s">
         <v>64</v>
       </c>
-      <c r="M75" s="14">
+      <c r="M75" s="8">
         <v>32.268291473388672</v>
       </c>
-      <c r="N75" s="14">
+      <c r="N75" s="8">
         <v>44.319999694824219</v>
       </c>
-      <c r="O75" s="14">
+      <c r="O75" s="8">
         <v>18.23927116394043</v>
       </c>
-      <c r="P75" s="14">
+      <c r="P75" s="8">
         <v>14</v>
       </c>
-      <c r="Q75" s="14">
+      <c r="Q75" s="8">
         <v>83</v>
       </c>
-      <c r="R75" s="14">
+      <c r="R75" s="8">
         <v>100</v>
       </c>
-      <c r="S75" s="14">
+      <c r="S75" s="8">
         <v>18</v>
       </c>
-      <c r="T75" s="14">
+      <c r="T75" s="8">
         <v>65</v>
       </c>
-      <c r="U75" s="14">
+      <c r="U75" s="8">
         <v>47</v>
       </c>
-      <c r="V75" s="14">
+      <c r="V75" s="8">
         <v>29</v>
       </c>
       <c r="W75" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A76" s="7">
+        <v>15</v>
+      </c>
+      <c r="B76" s="7">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A76" s="13">
-        <v>15</v>
-      </c>
-      <c r="B76" s="13">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>455</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>456</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>457</v>
-      </c>
-      <c r="F76" t="s">
-        <v>458</v>
       </c>
       <c r="G76" t="s">
         <v>69</v>
@@ -7711,42 +7711,42 @@
         <v>70</v>
       </c>
       <c r="J76" t="s">
+        <v>458</v>
+      </c>
+      <c r="K76" t="s">
         <v>459</v>
       </c>
-      <c r="K76" t="s">
-        <v>460</v>
-      </c>
       <c r="L76" t="s">
-        <v>208</v>
-      </c>
-      <c r="M76" s="14">
+        <v>207</v>
+      </c>
+      <c r="M76" s="8">
         <v>65.452583312988281</v>
       </c>
-      <c r="N76" s="14">
+      <c r="N76" s="8">
         <v>-0.16115331649780273</v>
       </c>
-      <c r="O76" s="14">
+      <c r="O76" s="8">
         <v>3.5129354000091553</v>
       </c>
-      <c r="P76" s="14">
+      <c r="P76" s="8">
         <v>-15.84934139251709</v>
       </c>
-      <c r="Q76" s="14">
+      <c r="Q76" s="8">
         <v>7.4739460945129395</v>
       </c>
-      <c r="R76" s="14">
+      <c r="R76" s="8">
         <v>4.9771852493286133</v>
       </c>
-      <c r="S76" s="14">
+      <c r="S76" s="8">
         <v>-9.8000001907348633</v>
       </c>
-      <c r="T76" s="14">
+      <c r="T76" s="8">
         <v>3.4</v>
       </c>
-      <c r="U76" s="14">
+      <c r="U76" s="8">
         <v>0</v>
       </c>
-      <c r="V76" s="14">
+      <c r="V76" s="8">
         <v>1.5</v>
       </c>
       <c r="W76" t="s">
@@ -7754,23 +7754,23 @@
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A77" s="13">
+      <c r="A77" s="7">
         <v>16</v>
       </c>
-      <c r="B77" s="13">
+      <c r="B77" s="7">
         <v>1</v>
       </c>
       <c r="C77" t="s">
+        <v>460</v>
+      </c>
+      <c r="D77" t="s">
         <v>461</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>462</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>463</v>
-      </c>
-      <c r="F77" t="s">
-        <v>464</v>
       </c>
       <c r="G77" t="s">
         <v>69</v>
@@ -7782,66 +7782,66 @@
         <v>70</v>
       </c>
       <c r="J77" t="s">
+        <v>464</v>
+      </c>
+      <c r="K77" t="s">
         <v>465</v>
-      </c>
-      <c r="K77" t="s">
-        <v>466</v>
       </c>
       <c r="L77" t="s">
         <v>56</v>
       </c>
-      <c r="M77" s="14">
+      <c r="M77" s="8">
         <v>19</v>
       </c>
-      <c r="N77" s="14">
+      <c r="N77" s="8">
         <v>19</v>
       </c>
-      <c r="O77" s="14">
+      <c r="O77" s="8">
         <v>31.363569259643555</v>
       </c>
-      <c r="P77" s="14">
+      <c r="P77" s="8">
         <v>0</v>
       </c>
-      <c r="Q77" s="14">
+      <c r="Q77" s="8">
         <v>100</v>
       </c>
-      <c r="R77" s="14">
+      <c r="R77" s="8">
         <v>100</v>
       </c>
-      <c r="S77" s="14">
+      <c r="S77" s="8">
         <v>0</v>
       </c>
-      <c r="T77" s="14">
+      <c r="T77" s="8">
         <v>60</v>
       </c>
-      <c r="U77" s="14">
+      <c r="U77" s="8">
         <v>30</v>
       </c>
-      <c r="V77" s="14">
+      <c r="V77" s="8">
         <v>45</v>
       </c>
       <c r="W77" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A78" s="7">
+        <v>16</v>
+      </c>
+      <c r="B78" s="7">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A78" s="13">
-        <v>16</v>
-      </c>
-      <c r="B78" s="13">
-        <v>7</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>468</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>469</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>470</v>
-      </c>
-      <c r="F78" t="s">
-        <v>471</v>
       </c>
       <c r="G78" t="s">
         <v>27</v>
@@ -7850,66 +7850,66 @@
         <v>28</v>
       </c>
       <c r="I78" t="s">
+        <v>471</v>
+      </c>
+      <c r="J78" t="s">
         <v>472</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>473</v>
       </c>
-      <c r="K78" t="s">
+      <c r="L78" t="s">
+        <v>406</v>
+      </c>
+      <c r="M78" s="8">
+        <v>14.450177192687988</v>
+      </c>
+      <c r="N78" s="8">
+        <v>1477.450927734375</v>
+      </c>
+      <c r="O78" s="8">
+        <v>476.88369750976562</v>
+      </c>
+      <c r="P78" s="8">
+        <v>585</v>
+      </c>
+      <c r="Q78" s="8">
+        <v>2625</v>
+      </c>
+      <c r="R78" s="8">
+        <v>25</v>
+      </c>
+      <c r="S78" s="8">
+        <v>1527.199951171875</v>
+      </c>
+      <c r="T78" s="8">
+        <v>100</v>
+      </c>
+      <c r="U78" s="8">
+        <v>200</v>
+      </c>
+      <c r="V78" s="8">
+        <v>150</v>
+      </c>
+      <c r="W78" t="s">
         <v>474</v>
       </c>
-      <c r="L78" t="s">
-        <v>407</v>
-      </c>
-      <c r="M78" s="14">
-        <v>14.450177192687988</v>
-      </c>
-      <c r="N78" s="14">
-        <v>1477.450927734375</v>
-      </c>
-      <c r="O78" s="14">
-        <v>476.88369750976562</v>
-      </c>
-      <c r="P78" s="14">
-        <v>585</v>
-      </c>
-      <c r="Q78" s="14">
-        <v>2625</v>
-      </c>
-      <c r="R78" s="14">
-        <v>25</v>
-      </c>
-      <c r="S78" s="14">
-        <v>1527.199951171875</v>
-      </c>
-      <c r="T78" s="14">
-        <v>100</v>
-      </c>
-      <c r="U78" s="14">
-        <v>200</v>
-      </c>
-      <c r="V78" s="14">
-        <v>150</v>
-      </c>
-      <c r="W78" t="s">
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A79" s="7">
+        <v>16</v>
+      </c>
+      <c r="B79" s="7">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A79" s="13">
-        <v>16</v>
-      </c>
-      <c r="B79" s="13">
-        <v>8</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>476</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>477</v>
-      </c>
-      <c r="E79" t="s">
-        <v>478</v>
       </c>
       <c r="F79" t="s">
         <v>44</v>
@@ -7921,45 +7921,45 @@
         <v>28</v>
       </c>
       <c r="I79" t="s">
+        <v>471</v>
+      </c>
+      <c r="J79" t="s">
         <v>472</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>473</v>
       </c>
-      <c r="K79" t="s">
-        <v>474</v>
-      </c>
       <c r="L79" t="s">
-        <v>407</v>
-      </c>
-      <c r="M79" s="14">
+        <v>406</v>
+      </c>
+      <c r="M79" s="8">
         <v>0</v>
       </c>
-      <c r="N79" s="14">
+      <c r="N79" s="8">
         <v>5.9540958404541016</v>
       </c>
-      <c r="O79" s="14">
+      <c r="O79" s="8">
         <v>2.489840030670166</v>
       </c>
-      <c r="P79" s="14">
+      <c r="P79" s="8">
         <v>2.3780488967895508</v>
       </c>
-      <c r="Q79" s="14">
+      <c r="Q79" s="8">
         <v>12.127659797668457</v>
       </c>
-      <c r="R79" s="14">
+      <c r="R79" s="8">
         <v>1</v>
       </c>
-      <c r="S79" s="14">
+      <c r="S79" s="8">
         <v>2</v>
       </c>
-      <c r="T79" s="14">
+      <c r="T79" s="8">
         <v>1.25</v>
       </c>
-      <c r="U79" s="14">
+      <c r="U79" s="8">
         <v>1.75</v>
       </c>
-      <c r="V79" s="14">
+      <c r="V79" s="8">
         <v>1.5</v>
       </c>
       <c r="W79" t="s">
@@ -7967,23 +7967,23 @@
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A80" s="13">
+      <c r="A80" s="7">
         <v>16</v>
       </c>
-      <c r="B80" s="13">
+      <c r="B80" s="7">
         <v>9</v>
       </c>
       <c r="C80" t="s">
+        <v>478</v>
+      </c>
+      <c r="D80" t="s">
         <v>479</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>480</v>
       </c>
-      <c r="E80" t="s">
-        <v>481</v>
-      </c>
       <c r="F80" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G80" t="s">
         <v>45</v>
@@ -7992,45 +7992,45 @@
         <v>28</v>
       </c>
       <c r="I80" t="s">
+        <v>481</v>
+      </c>
+      <c r="J80" t="s">
         <v>482</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>483</v>
       </c>
-      <c r="K80" t="s">
+      <c r="L80" t="s">
         <v>484</v>
       </c>
-      <c r="L80" t="s">
-        <v>485</v>
-      </c>
-      <c r="M80" s="14">
+      <c r="M80" s="8">
         <v>4.2410411834716797</v>
       </c>
-      <c r="N80" s="14">
+      <c r="N80" s="8">
         <v>4.8888235092163086</v>
       </c>
-      <c r="O80" s="14">
+      <c r="O80" s="8">
         <v>3.2452077865600586</v>
       </c>
-      <c r="P80" s="14">
+      <c r="P80" s="8">
         <v>1.3833991289138794</v>
       </c>
-      <c r="Q80" s="14">
+      <c r="Q80" s="8">
         <v>19.518150329589844</v>
       </c>
-      <c r="R80" s="14">
+      <c r="R80" s="8">
         <v>1</v>
       </c>
-      <c r="S80" s="14">
+      <c r="S80" s="8">
         <v>2</v>
       </c>
-      <c r="T80" s="14">
+      <c r="T80" s="8">
         <v>1.25</v>
       </c>
-      <c r="U80" s="14">
+      <c r="U80" s="8">
         <v>1.75</v>
       </c>
-      <c r="V80" s="14">
+      <c r="V80" s="8">
         <v>1.5</v>
       </c>
       <c r="W80" t="s">
@@ -8038,20 +8038,20 @@
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A81" s="13">
+      <c r="A81" s="7">
         <v>16</v>
       </c>
-      <c r="B81" s="13">
+      <c r="B81" s="7">
         <v>12</v>
       </c>
       <c r="C81" t="s">
+        <v>485</v>
+      </c>
+      <c r="D81" t="s">
         <v>486</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>487</v>
-      </c>
-      <c r="E81" t="s">
-        <v>488</v>
       </c>
       <c r="F81" t="s">
         <v>44</v>
@@ -8063,45 +8063,45 @@
         <v>28</v>
       </c>
       <c r="I81" t="s">
+        <v>488</v>
+      </c>
+      <c r="J81" t="s">
         <v>489</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>490</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>491</v>
       </c>
-      <c r="L81" t="s">
-        <v>492</v>
-      </c>
-      <c r="M81" s="14">
+      <c r="M81" s="8">
         <v>1.7647058963775635</v>
       </c>
-      <c r="N81" s="14">
+      <c r="N81" s="8">
         <v>6.962745189666748</v>
       </c>
-      <c r="O81" s="14">
+      <c r="O81" s="8">
         <v>4.6890068054199219</v>
       </c>
-      <c r="P81" s="14">
+      <c r="P81" s="8">
         <v>1.1000000238418579</v>
       </c>
-      <c r="Q81" s="14">
+      <c r="Q81" s="8">
         <v>30.100000381469727</v>
       </c>
-      <c r="R81" s="14">
+      <c r="R81" s="8">
         <v>1</v>
       </c>
-      <c r="S81" s="14">
+      <c r="S81" s="8">
         <v>2</v>
       </c>
-      <c r="T81" s="14">
+      <c r="T81" s="8">
         <v>1.25</v>
       </c>
-      <c r="U81" s="14">
+      <c r="U81" s="8">
         <v>1.75</v>
       </c>
-      <c r="V81" s="14">
+      <c r="V81" s="8">
         <v>1.5</v>
       </c>
       <c r="W81" t="s">
